--- a/scraping/box_mojo/top_worldwide_gross/data.xlsx
+++ b/scraping/box_mojo/top_worldwide_gross/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\box_mojo\top_worldwide_gross\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C44C86-CA8A-4771-A6DD-EE4BC126C25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D124C22-8DE2-43C6-826C-4DFA055A21FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,12 +763,12 @@
     <t>The Revenant</t>
   </si>
   <si>
+    <t>Jurassic World: Rebirth</t>
+  </si>
+  <si>
     <t>No More Bets</t>
   </si>
   <si>
-    <t>Jurassic World: Rebirth</t>
-  </si>
-  <si>
     <t>The Meg</t>
   </si>
   <si>
@@ -1195,12 +1195,12 @@
     <t>Spider-Man: Into the Spider-Verse</t>
   </si>
   <si>
+    <t>F1: The Movie</t>
+  </si>
+  <si>
     <t>Black Adam</t>
   </si>
   <si>
-    <t>F1: The Movie</t>
-  </si>
-  <si>
     <t>Solo: A Star Wars Story</t>
   </si>
   <si>
@@ -1915,12 +1915,12 @@
     <t>Lethal Weapon 4</t>
   </si>
   <si>
+    <t>Final Destination: Bloodlines</t>
+  </si>
+  <si>
     <t>Suzume</t>
   </si>
   <si>
-    <t>Final Destination: Bloodlines</t>
-  </si>
-  <si>
     <t>John Carter</t>
   </si>
   <si>
@@ -2326,9 +2326,6 @@
     <t>Crazy Rich Asians</t>
   </si>
   <si>
-    <t>Black Bag</t>
-  </si>
-  <si>
     <t>Bullet Train</t>
   </si>
   <si>
@@ -2998,7 +2995,10 @@
     <t>Sheep Without a Shepherd</t>
   </si>
   <si>
-    <t>1,000The Longest Yard</t>
+    <t>The Longest Yard</t>
+  </si>
+  <si>
+    <t>The Equalizer 3</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3369,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,16 +4900,16 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>994264677</v>
+        <v>994902499</v>
       </c>
       <c r="D59">
-        <v>414564677</v>
+        <v>414578170</v>
       </c>
       <c r="E59">
         <v>41.7</v>
       </c>
       <c r="F59">
-        <v>579700000</v>
+        <v>580324329</v>
       </c>
       <c r="G59">
         <v>58.3</v>
@@ -8722,10 +8722,10 @@
         <v>211</v>
       </c>
       <c r="C206">
-        <v>584077375</v>
+        <v>584138579</v>
       </c>
       <c r="D206">
-        <v>193977375</v>
+        <v>194038579</v>
       </c>
       <c r="E206">
         <v>33.200000000000003</v>
@@ -8982,19 +8982,19 @@
         <v>221</v>
       </c>
       <c r="C216">
-        <v>560773200</v>
+        <v>561646935</v>
       </c>
       <c r="D216">
-        <v>239808200</v>
+        <v>239914935</v>
       </c>
       <c r="E216">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="F216">
-        <v>320965000</v>
+        <v>321732000</v>
       </c>
       <c r="G216">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="H216">
         <v>2025</v>
@@ -9658,22 +9658,22 @@
         <v>247</v>
       </c>
       <c r="C242">
-        <v>532600264</v>
+        <v>532699420</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>232448420</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="F242">
-        <v>532600264</v>
+        <v>300251000</v>
       </c>
       <c r="G242">
-        <v>100</v>
+        <v>56.4</v>
       </c>
       <c r="H242">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9684,22 +9684,22 @@
         <v>248</v>
       </c>
       <c r="C243">
-        <v>529462710</v>
+        <v>532600264</v>
       </c>
       <c r="D243">
-        <v>232113710</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>297349000</v>
+        <v>532600264</v>
       </c>
       <c r="G243">
-        <v>56.2</v>
+        <v>100</v>
       </c>
       <c r="H243">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -13506,22 +13506,22 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>393452111</v>
+        <v>393456528</v>
       </c>
       <c r="D390">
-        <v>168152111</v>
+        <v>136256528</v>
       </c>
       <c r="E390">
-        <v>42.7</v>
+        <v>34.6</v>
       </c>
       <c r="F390">
-        <v>225300000</v>
+        <v>257200000</v>
       </c>
       <c r="G390">
-        <v>57.3</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="H390">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -13532,22 +13532,22 @@
         <v>392</v>
       </c>
       <c r="C391">
-        <v>393394846</v>
+        <v>393452111</v>
       </c>
       <c r="D391">
-        <v>136194846</v>
+        <v>168152111</v>
       </c>
       <c r="E391">
-        <v>34.6</v>
+        <v>42.7</v>
       </c>
       <c r="F391">
-        <v>257200000</v>
+        <v>225300000</v>
       </c>
       <c r="G391">
-        <v>65.400000000000006</v>
+        <v>57.3</v>
       </c>
       <c r="H391">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -13974,16 +13974,16 @@
         <v>409</v>
       </c>
       <c r="C408">
-        <v>382029309</v>
+        <v>382066826</v>
       </c>
       <c r="D408">
-        <v>189941226</v>
+        <v>189942375</v>
       </c>
       <c r="E408">
         <v>49.7</v>
       </c>
       <c r="F408">
-        <v>192088083</v>
+        <v>192124451</v>
       </c>
       <c r="G408">
         <v>50.3</v>
@@ -14832,10 +14832,10 @@
         <v>441</v>
       </c>
       <c r="C441">
-        <v>365799704</v>
+        <v>365840656</v>
       </c>
       <c r="D441">
-        <v>278499704</v>
+        <v>278540656</v>
       </c>
       <c r="E441">
         <v>76.099999999999994</v>
@@ -19772,22 +19772,22 @@
         <v>631</v>
       </c>
       <c r="C631">
-        <v>285092455</v>
+        <v>285147646</v>
       </c>
       <c r="D631">
-        <v>10932037</v>
+        <v>137947646</v>
       </c>
       <c r="E631">
-        <v>3.8</v>
+        <v>48.4</v>
       </c>
       <c r="F631">
-        <v>274160418</v>
+        <v>147200000</v>
       </c>
       <c r="G631">
-        <v>96.2</v>
+        <v>51.6</v>
       </c>
       <c r="H631">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
@@ -19798,22 +19798,22 @@
         <v>632</v>
       </c>
       <c r="C632">
-        <v>285016534</v>
+        <v>285092455</v>
       </c>
       <c r="D632">
-        <v>137816534</v>
+        <v>10932037</v>
       </c>
       <c r="E632">
-        <v>48.4</v>
+        <v>3.8</v>
       </c>
       <c r="F632">
-        <v>147200000</v>
+        <v>274160418</v>
       </c>
       <c r="G632">
-        <v>51.6</v>
+        <v>96.2</v>
       </c>
       <c r="H632">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
@@ -23386,22 +23386,22 @@
         <v>768</v>
       </c>
       <c r="C770">
-        <v>239294907</v>
+        <v>239268602</v>
       </c>
       <c r="D770">
-        <v>21474035</v>
+        <v>103368602</v>
       </c>
       <c r="E770">
-        <v>9</v>
+        <v>43.2</v>
       </c>
       <c r="F770">
-        <v>217820872</v>
+        <v>135900000</v>
       </c>
       <c r="G770">
-        <v>91</v>
+        <v>56.8</v>
       </c>
       <c r="H770">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
@@ -23412,22 +23412,22 @@
         <v>769</v>
       </c>
       <c r="C771">
-        <v>239268602</v>
+        <v>238259753</v>
       </c>
       <c r="D771">
-        <v>103368602</v>
+        <v>107353792</v>
       </c>
       <c r="E771">
-        <v>43.2</v>
+        <v>45.1</v>
       </c>
       <c r="F771">
-        <v>135900000</v>
+        <v>130905961</v>
       </c>
       <c r="G771">
-        <v>56.8</v>
+        <v>54.9</v>
       </c>
       <c r="H771">
-        <v>2022</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
@@ -23438,22 +23438,22 @@
         <v>770</v>
       </c>
       <c r="C772">
-        <v>238259753</v>
+        <v>237918802</v>
       </c>
       <c r="D772">
-        <v>107353792</v>
+        <v>45770312</v>
       </c>
       <c r="E772">
-        <v>45.1</v>
+        <v>19.2</v>
       </c>
       <c r="F772">
-        <v>130905961</v>
+        <v>192148490</v>
       </c>
       <c r="G772">
-        <v>54.9</v>
+        <v>80.8</v>
       </c>
       <c r="H772">
-        <v>1997</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
@@ -23464,22 +23464,22 @@
         <v>771</v>
       </c>
       <c r="C773">
-        <v>237918802</v>
+        <v>237382724</v>
       </c>
       <c r="D773">
-        <v>45770312</v>
+        <v>42779261</v>
       </c>
       <c r="E773">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="F773">
-        <v>192148490</v>
+        <v>194603463</v>
       </c>
       <c r="G773">
-        <v>80.8</v>
+        <v>82</v>
       </c>
       <c r="H773">
-        <v>2024</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.25">
@@ -23490,22 +23490,22 @@
         <v>772</v>
       </c>
       <c r="C774">
-        <v>237382724</v>
+        <v>237202299</v>
       </c>
       <c r="D774">
-        <v>42779261</v>
+        <v>101648571</v>
       </c>
       <c r="E774">
-        <v>18</v>
+        <v>42.8</v>
       </c>
       <c r="F774">
-        <v>194603463</v>
+        <v>135553728</v>
       </c>
       <c r="G774">
-        <v>82</v>
+        <v>57.2</v>
       </c>
       <c r="H774">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.25">
@@ -23516,22 +23516,22 @@
         <v>773</v>
       </c>
       <c r="C775">
-        <v>237202299</v>
+        <v>237201172</v>
       </c>
       <c r="D775">
-        <v>101648571</v>
+        <v>116601172</v>
       </c>
       <c r="E775">
-        <v>42.8</v>
+        <v>49.2</v>
       </c>
       <c r="F775">
-        <v>135553728</v>
+        <v>120600000</v>
       </c>
       <c r="G775">
-        <v>57.2</v>
+        <v>50.8</v>
       </c>
       <c r="H775">
-        <v>2000</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.25">
@@ -23542,22 +23542,22 @@
         <v>774</v>
       </c>
       <c r="C776">
-        <v>237201172</v>
+        <v>237113184</v>
       </c>
       <c r="D776">
-        <v>116601172</v>
+        <v>94213184</v>
       </c>
       <c r="E776">
-        <v>49.2</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F776">
-        <v>120600000</v>
+        <v>142900000</v>
       </c>
       <c r="G776">
-        <v>50.8</v>
+        <v>60.3</v>
       </c>
       <c r="H776">
-        <v>2011</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.25">
@@ -23568,22 +23568,22 @@
         <v>775</v>
       </c>
       <c r="C777">
-        <v>237113184</v>
+        <v>236412453</v>
       </c>
       <c r="D777">
-        <v>94213184</v>
+        <v>132092958</v>
       </c>
       <c r="E777">
-        <v>39.700000000000003</v>
+        <v>55.9</v>
       </c>
       <c r="F777">
-        <v>142900000</v>
+        <v>104319495</v>
       </c>
       <c r="G777">
-        <v>60.3</v>
+        <v>44.1</v>
       </c>
       <c r="H777">
-        <v>1977</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
@@ -23594,22 +23594,22 @@
         <v>776</v>
       </c>
       <c r="C778">
-        <v>236412453</v>
+        <v>236353236</v>
       </c>
       <c r="D778">
-        <v>132092958</v>
+        <v>127154901</v>
       </c>
       <c r="E778">
-        <v>55.9</v>
+        <v>53.8</v>
       </c>
       <c r="F778">
-        <v>104319495</v>
+        <v>109198335</v>
       </c>
       <c r="G778">
-        <v>44.1</v>
+        <v>46.2</v>
       </c>
       <c r="H778">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.25">
@@ -23620,22 +23620,22 @@
         <v>777</v>
       </c>
       <c r="C779">
-        <v>236353236</v>
+        <v>235957472</v>
       </c>
       <c r="D779">
-        <v>127154901</v>
+        <v>169607287</v>
       </c>
       <c r="E779">
-        <v>53.8</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F779">
-        <v>109198335</v>
+        <v>66350185</v>
       </c>
       <c r="G779">
-        <v>46.2</v>
+        <v>28.1</v>
       </c>
       <c r="H779">
-        <v>2003</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.25">
@@ -23646,22 +23646,22 @@
         <v>778</v>
       </c>
       <c r="C780">
-        <v>235957472</v>
+        <v>235926635</v>
       </c>
       <c r="D780">
-        <v>169607287</v>
+        <v>78616689</v>
       </c>
       <c r="E780">
-        <v>71.900000000000006</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F780">
-        <v>66350185</v>
+        <v>157309946</v>
       </c>
       <c r="G780">
-        <v>28.1</v>
+        <v>66.7</v>
       </c>
       <c r="H780">
-        <v>2016</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.25">
@@ -23672,22 +23672,22 @@
         <v>779</v>
       </c>
       <c r="C781">
-        <v>235926635</v>
+        <v>235860116</v>
       </c>
       <c r="D781">
-        <v>78616689</v>
+        <v>95860116</v>
       </c>
       <c r="E781">
-        <v>33.299999999999997</v>
+        <v>40.6</v>
       </c>
       <c r="F781">
-        <v>157309946</v>
+        <v>140000000</v>
       </c>
       <c r="G781">
-        <v>66.7</v>
+        <v>59.4</v>
       </c>
       <c r="H781">
-        <v>2001</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.25">
@@ -23698,22 +23698,22 @@
         <v>780</v>
       </c>
       <c r="C782">
-        <v>235860116</v>
+        <v>235666219</v>
       </c>
       <c r="D782">
-        <v>95860116</v>
+        <v>110825712</v>
       </c>
       <c r="E782">
-        <v>40.6</v>
+        <v>47</v>
       </c>
       <c r="F782">
-        <v>140000000</v>
+        <v>124840507</v>
       </c>
       <c r="G782">
-        <v>59.4</v>
+        <v>53</v>
       </c>
       <c r="H782">
-        <v>1989</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.25">
@@ -23724,22 +23724,22 @@
         <v>781</v>
       </c>
       <c r="C783">
-        <v>235666219</v>
+        <v>235483004</v>
       </c>
       <c r="D783">
-        <v>110825712</v>
+        <v>102561004</v>
       </c>
       <c r="E783">
-        <v>47</v>
+        <v>43.6</v>
       </c>
       <c r="F783">
-        <v>124840507</v>
+        <v>132922000</v>
       </c>
       <c r="G783">
-        <v>53</v>
+        <v>56.4</v>
       </c>
       <c r="H783">
-        <v>2015</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
@@ -23750,22 +23750,22 @@
         <v>782</v>
       </c>
       <c r="C784">
-        <v>235483004</v>
+        <v>234989584</v>
       </c>
       <c r="D784">
-        <v>102561004</v>
+        <v>57011521</v>
       </c>
       <c r="E784">
-        <v>43.6</v>
+        <v>24.3</v>
       </c>
       <c r="F784">
-        <v>132922000</v>
+        <v>177978063</v>
       </c>
       <c r="G784">
-        <v>56.4</v>
+        <v>75.7</v>
       </c>
       <c r="H784">
-        <v>1999</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.25">
@@ -23776,22 +23776,22 @@
         <v>783</v>
       </c>
       <c r="C785">
-        <v>234989584</v>
+        <v>234801895</v>
       </c>
       <c r="D785">
-        <v>57011521</v>
+        <v>163479795</v>
       </c>
       <c r="E785">
-        <v>24.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="F785">
-        <v>177978063</v>
+        <v>71322100</v>
       </c>
       <c r="G785">
-        <v>75.7</v>
+        <v>30.4</v>
       </c>
       <c r="H785">
-        <v>2012</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.25">
@@ -23802,22 +23802,22 @@
         <v>784</v>
       </c>
       <c r="C786">
-        <v>234801895</v>
+        <v>234798636</v>
       </c>
       <c r="D786">
-        <v>163479795</v>
+        <v>85886987</v>
       </c>
       <c r="E786">
-        <v>69.599999999999994</v>
+        <v>36.6</v>
       </c>
       <c r="F786">
-        <v>71322100</v>
+        <v>148911649</v>
       </c>
       <c r="G786">
-        <v>30.4</v>
+        <v>63.4</v>
       </c>
       <c r="H786">
-        <v>1999</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.25">
@@ -23828,22 +23828,22 @@
         <v>785</v>
       </c>
       <c r="C787">
-        <v>234798636</v>
+        <v>233555708</v>
       </c>
       <c r="D787">
-        <v>85886987</v>
+        <v>91125683</v>
       </c>
       <c r="E787">
-        <v>36.6</v>
+        <v>39</v>
       </c>
       <c r="F787">
-        <v>148911649</v>
+        <v>142430025</v>
       </c>
       <c r="G787">
-        <v>63.4</v>
+        <v>61</v>
       </c>
       <c r="H787">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.25">
@@ -23854,22 +23854,22 @@
         <v>786</v>
       </c>
       <c r="C788">
-        <v>233555708</v>
+        <v>233503234</v>
       </c>
       <c r="D788">
-        <v>91125683</v>
+        <v>86103234</v>
       </c>
       <c r="E788">
-        <v>39</v>
+        <v>36.9</v>
       </c>
       <c r="F788">
-        <v>142430025</v>
+        <v>147400000</v>
       </c>
       <c r="G788">
-        <v>61</v>
+        <v>63.1</v>
       </c>
       <c r="H788">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.25">
@@ -23880,22 +23880,22 @@
         <v>787</v>
       </c>
       <c r="C789">
-        <v>233503234</v>
+        <v>233093859</v>
       </c>
       <c r="D789">
-        <v>86103234</v>
+        <v>79366978</v>
       </c>
       <c r="E789">
-        <v>36.9</v>
+        <v>34</v>
       </c>
       <c r="F789">
-        <v>147400000</v>
+        <v>153726881</v>
       </c>
       <c r="G789">
-        <v>63.1</v>
+        <v>66</v>
       </c>
       <c r="H789">
-        <v>2021</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.25">
@@ -23906,22 +23906,22 @@
         <v>788</v>
       </c>
       <c r="C790">
-        <v>233093859</v>
+        <v>232722935</v>
       </c>
       <c r="D790">
-        <v>79366978</v>
+        <v>104565114</v>
       </c>
       <c r="E790">
-        <v>34</v>
+        <v>44.9</v>
       </c>
       <c r="F790">
-        <v>153726881</v>
+        <v>128157821</v>
       </c>
       <c r="G790">
-        <v>66</v>
+        <v>55.1</v>
       </c>
       <c r="H790">
-        <v>2008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.25">
@@ -23932,22 +23932,22 @@
         <v>789</v>
       </c>
       <c r="C791">
-        <v>232722935</v>
+        <v>232617430</v>
       </c>
       <c r="D791">
-        <v>104565114</v>
+        <v>102515793</v>
       </c>
       <c r="E791">
-        <v>44.9</v>
+        <v>44.1</v>
       </c>
       <c r="F791">
-        <v>128157821</v>
+        <v>130101637</v>
       </c>
       <c r="G791">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="H791">
-        <v>2003</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.25">
@@ -23958,22 +23958,22 @@
         <v>790</v>
       </c>
       <c r="C792">
-        <v>232617430</v>
+        <v>232373066</v>
       </c>
       <c r="D792">
-        <v>102515793</v>
+        <v>143495265</v>
       </c>
       <c r="E792">
-        <v>44.1</v>
+        <v>61.8</v>
       </c>
       <c r="F792">
-        <v>130101637</v>
+        <v>88877801</v>
       </c>
       <c r="G792">
-        <v>55.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H792">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.25">
@@ -23984,22 +23984,22 @@
         <v>791</v>
       </c>
       <c r="C793">
-        <v>232373066</v>
+        <v>232325503</v>
       </c>
       <c r="D793">
-        <v>143495265</v>
+        <v>136025503</v>
       </c>
       <c r="E793">
-        <v>61.8</v>
+        <v>58.6</v>
       </c>
       <c r="F793">
-        <v>88877801</v>
+        <v>96300000</v>
       </c>
       <c r="G793">
-        <v>38.200000000000003</v>
+        <v>41.4</v>
       </c>
       <c r="H793">
-        <v>2007</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.25">
@@ -24010,22 +24010,22 @@
         <v>792</v>
       </c>
       <c r="C794">
-        <v>232325503</v>
+        <v>232225908</v>
       </c>
       <c r="D794">
-        <v>136025503</v>
+        <v>33302167</v>
       </c>
       <c r="E794">
-        <v>58.6</v>
+        <v>14.3</v>
       </c>
       <c r="F794">
-        <v>96300000</v>
+        <v>198923741</v>
       </c>
       <c r="G794">
-        <v>41.4</v>
+        <v>85.7</v>
       </c>
       <c r="H794">
-        <v>2012</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.25">
@@ -24036,22 +24036,22 @@
         <v>793</v>
       </c>
       <c r="C795">
-        <v>232225908</v>
+        <v>231976425</v>
       </c>
       <c r="D795">
-        <v>33302167</v>
+        <v>78676425</v>
       </c>
       <c r="E795">
-        <v>14.3</v>
+        <v>33.9</v>
       </c>
       <c r="F795">
-        <v>198923741</v>
+        <v>153300000</v>
       </c>
       <c r="G795">
-        <v>85.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="H795">
-        <v>2007</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.25">
@@ -24062,22 +24062,22 @@
         <v>794</v>
       </c>
       <c r="C796">
-        <v>231976425</v>
+        <v>231605150</v>
       </c>
       <c r="D796">
-        <v>78676425</v>
+        <v>139605150</v>
       </c>
       <c r="E796">
-        <v>33.9</v>
+        <v>60.3</v>
       </c>
       <c r="F796">
-        <v>153300000</v>
+        <v>92000000</v>
       </c>
       <c r="G796">
-        <v>66.099999999999994</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H796">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.25">
@@ -24088,22 +24088,22 @@
         <v>795</v>
       </c>
       <c r="C797">
-        <v>231605150</v>
+        <v>231252591</v>
       </c>
       <c r="D797">
-        <v>139605150</v>
+        <v>74152591</v>
       </c>
       <c r="E797">
-        <v>60.3</v>
+        <v>32.1</v>
       </c>
       <c r="F797">
-        <v>92000000</v>
+        <v>157100000</v>
       </c>
       <c r="G797">
-        <v>39.700000000000003</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H797">
-        <v>1992</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.25">
@@ -24114,22 +24114,22 @@
         <v>796</v>
       </c>
       <c r="C798">
-        <v>231252591</v>
+        <v>230885289</v>
       </c>
       <c r="D798">
-        <v>74152591</v>
+        <v>75976178</v>
       </c>
       <c r="E798">
-        <v>32.1</v>
+        <v>32.9</v>
       </c>
       <c r="F798">
-        <v>157100000</v>
+        <v>154909111</v>
       </c>
       <c r="G798">
-        <v>67.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H798">
-        <v>2019</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.25">
@@ -24140,22 +24140,22 @@
         <v>797</v>
       </c>
       <c r="C799">
-        <v>230885289</v>
+        <v>230685453</v>
       </c>
       <c r="D799">
-        <v>75976178</v>
+        <v>130319208</v>
       </c>
       <c r="E799">
-        <v>32.9</v>
+        <v>56.5</v>
       </c>
       <c r="F799">
-        <v>154909111</v>
+        <v>100366245</v>
       </c>
       <c r="G799">
-        <v>67.099999999999994</v>
+        <v>43.5</v>
       </c>
       <c r="H799">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.25">
@@ -24166,22 +24166,22 @@
         <v>798</v>
       </c>
       <c r="C800">
-        <v>230685453</v>
+        <v>230594962</v>
       </c>
       <c r="D800">
-        <v>130319208</v>
+        <v>90594962</v>
       </c>
       <c r="E800">
-        <v>56.5</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F800">
-        <v>100366245</v>
+        <v>140000000</v>
       </c>
       <c r="G800">
-        <v>43.5</v>
+        <v>60.7</v>
       </c>
       <c r="H800">
-        <v>2008</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.25">
@@ -24192,22 +24192,22 @@
         <v>799</v>
       </c>
       <c r="C801">
-        <v>230594962</v>
+        <v>230266511</v>
       </c>
       <c r="D801">
-        <v>90594962</v>
+        <v>178053220</v>
       </c>
       <c r="E801">
-        <v>39.299999999999997</v>
+        <v>77.3</v>
       </c>
       <c r="F801">
-        <v>140000000</v>
+        <v>52213291</v>
       </c>
       <c r="G801">
-        <v>60.7</v>
+        <v>22.7</v>
       </c>
       <c r="H801">
-        <v>1996</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.25">
@@ -24218,22 +24218,22 @@
         <v>800</v>
       </c>
       <c r="C802">
-        <v>230266511</v>
+        <v>230099013</v>
       </c>
       <c r="D802">
-        <v>178053220</v>
+        <v>57563264</v>
       </c>
       <c r="E802">
-        <v>77.3</v>
+        <v>25</v>
       </c>
       <c r="F802">
-        <v>52213291</v>
+        <v>172535749</v>
       </c>
       <c r="G802">
-        <v>22.7</v>
+        <v>75</v>
       </c>
       <c r="H802">
-        <v>2003</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.25">
@@ -24244,22 +24244,22 @@
         <v>801</v>
       </c>
       <c r="C803">
-        <v>230099013</v>
+        <v>229930771</v>
       </c>
       <c r="D803">
-        <v>57563264</v>
+        <v>159582188</v>
       </c>
       <c r="E803">
-        <v>25</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F803">
-        <v>172535749</v>
+        <v>70348583</v>
       </c>
       <c r="G803">
-        <v>75</v>
+        <v>30.6</v>
       </c>
       <c r="H803">
-        <v>1998</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.25">
@@ -24267,25 +24267,25 @@
         <v>803</v>
       </c>
       <c r="B804" t="s">
-        <v>802</v>
+        <v>602</v>
       </c>
       <c r="C804">
-        <v>229930771</v>
+        <v>229147509</v>
       </c>
       <c r="D804">
-        <v>159582188</v>
+        <v>128350574</v>
       </c>
       <c r="E804">
-        <v>69.400000000000006</v>
+        <v>56</v>
       </c>
       <c r="F804">
-        <v>70348583</v>
+        <v>100796935</v>
       </c>
       <c r="G804">
-        <v>30.6</v>
+        <v>44</v>
       </c>
       <c r="H804">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.25">
@@ -24293,25 +24293,25 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>602</v>
+        <v>802</v>
       </c>
       <c r="C805">
-        <v>229147509</v>
+        <v>228738393</v>
       </c>
       <c r="D805">
-        <v>128350574</v>
+        <v>115802596</v>
       </c>
       <c r="E805">
-        <v>56</v>
+        <v>50.6</v>
       </c>
       <c r="F805">
-        <v>100796935</v>
+        <v>112935797</v>
       </c>
       <c r="G805">
-        <v>44</v>
+        <v>49.4</v>
       </c>
       <c r="H805">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
@@ -24322,22 +24322,22 @@
         <v>803</v>
       </c>
       <c r="C806">
-        <v>228738393</v>
+        <v>228122928</v>
       </c>
       <c r="D806">
-        <v>115802596</v>
+        <v>1293626</v>
       </c>
       <c r="E806">
-        <v>50.6</v>
+        <v>0.6</v>
       </c>
       <c r="F806">
-        <v>112935797</v>
+        <v>226829302</v>
       </c>
       <c r="G806">
-        <v>49.4</v>
+        <v>99.4</v>
       </c>
       <c r="H806">
-        <v>2007</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.25">
@@ -24348,22 +24348,22 @@
         <v>804</v>
       </c>
       <c r="C807">
-        <v>228122928</v>
+        <v>227927165</v>
       </c>
       <c r="D807">
-        <v>1293626</v>
+        <v>126808165</v>
       </c>
       <c r="E807">
-        <v>0.6</v>
+        <v>55.6</v>
       </c>
       <c r="F807">
-        <v>226829302</v>
+        <v>101119000</v>
       </c>
       <c r="G807">
-        <v>99.4</v>
+        <v>44.4</v>
       </c>
       <c r="H807">
-        <v>2015</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.25">
@@ -24374,22 +24374,22 @@
         <v>805</v>
       </c>
       <c r="C808">
-        <v>227927165</v>
+        <v>227853986</v>
       </c>
       <c r="D808">
-        <v>126808165</v>
+        <v>147253986</v>
       </c>
       <c r="E808">
-        <v>55.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F808">
-        <v>101119000</v>
+        <v>80600000</v>
       </c>
       <c r="G808">
-        <v>44.4</v>
+        <v>35.4</v>
       </c>
       <c r="H808">
-        <v>1993</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.25">
@@ -24400,22 +24400,22 @@
         <v>806</v>
       </c>
       <c r="C809">
-        <v>227853986</v>
+        <v>227817248</v>
       </c>
       <c r="D809">
-        <v>147253986</v>
+        <v>98780042</v>
       </c>
       <c r="E809">
-        <v>64.599999999999994</v>
+        <v>43.4</v>
       </c>
       <c r="F809">
-        <v>80600000</v>
+        <v>129037206</v>
       </c>
       <c r="G809">
-        <v>35.4</v>
+        <v>56.6</v>
       </c>
       <c r="H809">
-        <v>1989</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.25">
@@ -24426,22 +24426,22 @@
         <v>807</v>
       </c>
       <c r="C810">
-        <v>227817248</v>
+        <v>227514205</v>
       </c>
       <c r="D810">
-        <v>98780042</v>
+        <v>87071205</v>
       </c>
       <c r="E810">
-        <v>43.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F810">
-        <v>129037206</v>
+        <v>140443000</v>
       </c>
       <c r="G810">
-        <v>56.6</v>
+        <v>61.7</v>
       </c>
       <c r="H810">
-        <v>2011</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.25">
@@ -24452,22 +24452,22 @@
         <v>808</v>
       </c>
       <c r="C811">
-        <v>227514205</v>
+        <v>227313644</v>
       </c>
       <c r="D811">
-        <v>87071205</v>
+        <v>1921657</v>
       </c>
       <c r="E811">
-        <v>38.299999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="F811">
-        <v>140443000</v>
+        <v>225391987</v>
       </c>
       <c r="G811">
-        <v>61.7</v>
+        <v>99.2</v>
       </c>
       <c r="H811">
-        <v>1985</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.25">
@@ -24478,22 +24478,22 @@
         <v>809</v>
       </c>
       <c r="C812">
-        <v>227313644</v>
+        <v>227091290</v>
       </c>
       <c r="D812">
-        <v>1921657</v>
+        <v>1891956</v>
       </c>
       <c r="E812">
         <v>0.8</v>
       </c>
       <c r="F812">
-        <v>225391987</v>
+        <v>225199334</v>
       </c>
       <c r="G812">
         <v>99.2</v>
       </c>
       <c r="H812">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.25">
@@ -24504,19 +24504,19 @@
         <v>810</v>
       </c>
       <c r="C813">
-        <v>227091290</v>
+        <v>226945087</v>
       </c>
       <c r="D813">
-        <v>1891956</v>
+        <v>107825862</v>
       </c>
       <c r="E813">
-        <v>0.8</v>
+        <v>47.5</v>
       </c>
       <c r="F813">
-        <v>225199334</v>
+        <v>119119225</v>
       </c>
       <c r="G813">
-        <v>99.2</v>
+        <v>52.5</v>
       </c>
       <c r="H813">
         <v>2017</v>
@@ -24530,22 +24530,22 @@
         <v>811</v>
       </c>
       <c r="C814">
-        <v>226945087</v>
+        <v>226904017</v>
       </c>
       <c r="D814">
-        <v>107825862</v>
+        <v>83504017</v>
       </c>
       <c r="E814">
-        <v>47.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F814">
-        <v>119119225</v>
+        <v>143400000</v>
       </c>
       <c r="G814">
-        <v>52.5</v>
+        <v>63.2</v>
       </c>
       <c r="H814">
-        <v>2017</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.25">
@@ -24556,22 +24556,22 @@
         <v>812</v>
       </c>
       <c r="C815">
-        <v>226904017</v>
+        <v>226837760</v>
       </c>
       <c r="D815">
-        <v>83504017</v>
+        <v>145000989</v>
       </c>
       <c r="E815">
-        <v>36.799999999999997</v>
+        <v>63.9</v>
       </c>
       <c r="F815">
-        <v>143400000</v>
+        <v>81836771</v>
       </c>
       <c r="G815">
-        <v>63.2</v>
+        <v>36.1</v>
       </c>
       <c r="H815">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.25">
@@ -24582,22 +24582,22 @@
         <v>813</v>
       </c>
       <c r="C816">
-        <v>226837760</v>
+        <v>226497209</v>
       </c>
       <c r="D816">
-        <v>145000989</v>
+        <v>88768303</v>
       </c>
       <c r="E816">
-        <v>63.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F816">
-        <v>81836771</v>
+        <v>137728906</v>
       </c>
       <c r="G816">
-        <v>36.1</v>
+        <v>60.8</v>
       </c>
       <c r="H816">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.25">
@@ -24608,22 +24608,22 @@
         <v>814</v>
       </c>
       <c r="C817">
-        <v>226497209</v>
+        <v>226425420</v>
       </c>
       <c r="D817">
-        <v>88768303</v>
+        <v>118307188</v>
       </c>
       <c r="E817">
-        <v>39.200000000000003</v>
+        <v>52.2</v>
       </c>
       <c r="F817">
-        <v>137728906</v>
+        <v>108118232</v>
       </c>
       <c r="G817">
-        <v>60.8</v>
+        <v>47.8</v>
       </c>
       <c r="H817">
-        <v>2010</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.25">
@@ -24634,22 +24634,22 @@
         <v>815</v>
       </c>
       <c r="C818">
-        <v>226425420</v>
+        <v>226349749</v>
       </c>
       <c r="D818">
-        <v>118307188</v>
+        <v>55703475</v>
       </c>
       <c r="E818">
-        <v>52.2</v>
+        <v>24.6</v>
       </c>
       <c r="F818">
-        <v>108118232</v>
+        <v>170646274</v>
       </c>
       <c r="G818">
-        <v>47.8</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H818">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
@@ -24660,22 +24660,22 @@
         <v>816</v>
       </c>
       <c r="C819">
-        <v>226349749</v>
+        <v>226299480</v>
       </c>
       <c r="D819">
-        <v>55703475</v>
+        <v>117624357</v>
       </c>
       <c r="E819">
-        <v>24.6</v>
+        <v>52</v>
       </c>
       <c r="F819">
-        <v>170646274</v>
+        <v>108675123</v>
       </c>
       <c r="G819">
-        <v>75.400000000000006</v>
+        <v>48</v>
       </c>
       <c r="H819">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.25">
@@ -24686,22 +24686,22 @@
         <v>817</v>
       </c>
       <c r="C820">
-        <v>226299480</v>
+        <v>225973340</v>
       </c>
       <c r="D820">
-        <v>117624357</v>
+        <v>41189488</v>
       </c>
       <c r="E820">
-        <v>52</v>
+        <v>18.2</v>
       </c>
       <c r="F820">
-        <v>108675123</v>
+        <v>184783852</v>
       </c>
       <c r="G820">
-        <v>48</v>
+        <v>81.8</v>
       </c>
       <c r="H820">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.25">
@@ -24712,22 +24712,22 @@
         <v>818</v>
       </c>
       <c r="C821">
-        <v>225973340</v>
+        <v>225933435</v>
       </c>
       <c r="D821">
-        <v>41189488</v>
+        <v>138433435</v>
       </c>
       <c r="E821">
-        <v>18.2</v>
+        <v>61.3</v>
       </c>
       <c r="F821">
-        <v>184783852</v>
+        <v>87500000</v>
       </c>
       <c r="G821">
-        <v>81.8</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H821">
-        <v>2017</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
@@ -24738,22 +24738,22 @@
         <v>819</v>
       </c>
       <c r="C822">
-        <v>225933435</v>
+        <v>225132113</v>
       </c>
       <c r="D822">
-        <v>138433435</v>
+        <v>80172128</v>
       </c>
       <c r="E822">
-        <v>61.3</v>
+        <v>35.6</v>
       </c>
       <c r="F822">
-        <v>87500000</v>
+        <v>144959985</v>
       </c>
       <c r="G822">
-        <v>38.700000000000003</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H822">
-        <v>1997</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.25">
@@ -24764,22 +24764,22 @@
         <v>820</v>
       </c>
       <c r="C823">
-        <v>225132113</v>
+        <v>224927749</v>
       </c>
       <c r="D823">
-        <v>80172128</v>
+        <v>96962694</v>
       </c>
       <c r="E823">
-        <v>35.6</v>
+        <v>43.1</v>
       </c>
       <c r="F823">
-        <v>144959985</v>
+        <v>127965055</v>
       </c>
       <c r="G823">
-        <v>64.400000000000006</v>
+        <v>56.9</v>
       </c>
       <c r="H823">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.25">
@@ -24790,22 +24790,22 @@
         <v>821</v>
       </c>
       <c r="C824">
-        <v>224927749</v>
+        <v>224888359</v>
       </c>
       <c r="D824">
-        <v>96962694</v>
+        <v>106834564</v>
       </c>
       <c r="E824">
-        <v>43.1</v>
+        <v>47.5</v>
       </c>
       <c r="F824">
-        <v>127965055</v>
+        <v>118053795</v>
       </c>
       <c r="G824">
-        <v>56.9</v>
+        <v>52.5</v>
       </c>
       <c r="H824">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.25">
@@ -24816,22 +24816,22 @@
         <v>822</v>
       </c>
       <c r="C825">
-        <v>224888359</v>
+        <v>224012234</v>
       </c>
       <c r="D825">
-        <v>106834564</v>
+        <v>101117573</v>
       </c>
       <c r="E825">
-        <v>47.5</v>
+        <v>45.1</v>
       </c>
       <c r="F825">
-        <v>118053795</v>
+        <v>122894661</v>
       </c>
       <c r="G825">
-        <v>52.5</v>
+        <v>54.9</v>
       </c>
       <c r="H825">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.25">
@@ -24842,22 +24842,22 @@
         <v>823</v>
       </c>
       <c r="C826">
-        <v>224012234</v>
+        <v>223664608</v>
       </c>
       <c r="D826">
-        <v>101117573</v>
+        <v>105264608</v>
       </c>
       <c r="E826">
-        <v>45.1</v>
+        <v>47.1</v>
       </c>
       <c r="F826">
-        <v>122894661</v>
+        <v>118400000</v>
       </c>
       <c r="G826">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="H826">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.25">
@@ -24868,22 +24868,22 @@
         <v>824</v>
       </c>
       <c r="C827">
-        <v>223664608</v>
+        <v>223387299</v>
       </c>
       <c r="D827">
-        <v>105264608</v>
+        <v>89707299</v>
       </c>
       <c r="E827">
-        <v>47.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F827">
-        <v>118400000</v>
+        <v>133680000</v>
       </c>
       <c r="G827">
-        <v>52.9</v>
+        <v>59.8</v>
       </c>
       <c r="H827">
-        <v>1994</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
@@ -24894,22 +24894,22 @@
         <v>825</v>
       </c>
       <c r="C828">
-        <v>223387299</v>
+        <v>223241637</v>
       </c>
       <c r="D828">
-        <v>89707299</v>
+        <v>97690976</v>
       </c>
       <c r="E828">
-        <v>40.200000000000003</v>
+        <v>43.8</v>
       </c>
       <c r="F828">
-        <v>133680000</v>
+        <v>125550661</v>
       </c>
       <c r="G828">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="H828">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
@@ -24920,22 +24920,22 @@
         <v>826</v>
       </c>
       <c r="C829">
-        <v>223241637</v>
+        <v>222809600</v>
       </c>
       <c r="D829">
-        <v>97690976</v>
+        <v>92168600</v>
       </c>
       <c r="E829">
-        <v>43.8</v>
+        <v>41.4</v>
       </c>
       <c r="F829">
-        <v>125550661</v>
+        <v>130641000</v>
       </c>
       <c r="G829">
-        <v>56.2</v>
+        <v>58.6</v>
       </c>
       <c r="H829">
-        <v>2008</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
@@ -24946,22 +24946,22 @@
         <v>827</v>
       </c>
       <c r="C830">
-        <v>222809600</v>
+        <v>222724172</v>
       </c>
       <c r="D830">
-        <v>92168600</v>
+        <v>130724172</v>
       </c>
       <c r="E830">
-        <v>41.4</v>
+        <v>58.7</v>
       </c>
       <c r="F830">
-        <v>130641000</v>
+        <v>92000000</v>
       </c>
       <c r="G830">
-        <v>58.6</v>
+        <v>41.3</v>
       </c>
       <c r="H830">
-        <v>2014</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
@@ -24972,22 +24972,22 @@
         <v>828</v>
       </c>
       <c r="C831">
-        <v>222724172</v>
+        <v>222446882</v>
       </c>
       <c r="D831">
-        <v>130724172</v>
+        <v>119194771</v>
       </c>
       <c r="E831">
-        <v>58.7</v>
+        <v>53.6</v>
       </c>
       <c r="F831">
-        <v>92000000</v>
+        <v>103252111</v>
       </c>
       <c r="G831">
-        <v>41.3</v>
+        <v>46.4</v>
       </c>
       <c r="H831">
-        <v>1989</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
@@ -24998,22 +24998,22 @@
         <v>829</v>
       </c>
       <c r="C832">
-        <v>222446882</v>
+        <v>222104681</v>
       </c>
       <c r="D832">
-        <v>119194771</v>
+        <v>113804681</v>
       </c>
       <c r="E832">
-        <v>53.6</v>
+        <v>51.2</v>
       </c>
       <c r="F832">
-        <v>103252111</v>
+        <v>108300000</v>
       </c>
       <c r="G832">
-        <v>46.4</v>
+        <v>48.8</v>
       </c>
       <c r="H832">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
@@ -25024,22 +25024,22 @@
         <v>830</v>
       </c>
       <c r="C833">
-        <v>222104681</v>
+        <v>221900160</v>
       </c>
       <c r="D833">
-        <v>113804681</v>
+        <v>33700160</v>
       </c>
       <c r="E833">
-        <v>51.2</v>
+        <v>15.2</v>
       </c>
       <c r="F833">
-        <v>108300000</v>
+        <v>188200000</v>
       </c>
       <c r="G833">
-        <v>48.8</v>
+        <v>84.8</v>
       </c>
       <c r="H833">
-        <v>1999</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
@@ -25050,22 +25050,22 @@
         <v>831</v>
       </c>
       <c r="C834">
-        <v>221900160</v>
+        <v>221831086</v>
       </c>
       <c r="D834">
-        <v>33700160</v>
+        <v>177133</v>
       </c>
       <c r="E834">
-        <v>15.2</v>
+        <v>0.1</v>
       </c>
       <c r="F834">
-        <v>188200000</v>
+        <v>221653953</v>
       </c>
       <c r="G834">
-        <v>84.8</v>
+        <v>99.9</v>
       </c>
       <c r="H834">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.25">
@@ -25076,22 +25076,22 @@
         <v>832</v>
       </c>
       <c r="C835">
-        <v>221831086</v>
+        <v>221802186</v>
       </c>
       <c r="D835">
-        <v>177133</v>
+        <v>169708112</v>
       </c>
       <c r="E835">
-        <v>0.1</v>
+        <v>76.5</v>
       </c>
       <c r="F835">
-        <v>221653953</v>
+        <v>52094074</v>
       </c>
       <c r="G835">
-        <v>99.9</v>
+        <v>23.5</v>
       </c>
       <c r="H835">
-        <v>2021</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.25">
@@ -25102,22 +25102,22 @@
         <v>833</v>
       </c>
       <c r="C836">
-        <v>221802186</v>
+        <v>221394838</v>
       </c>
       <c r="D836">
-        <v>169708112</v>
+        <v>61524375</v>
       </c>
       <c r="E836">
-        <v>76.5</v>
+        <v>27.8</v>
       </c>
       <c r="F836">
-        <v>52094074</v>
+        <v>159870463</v>
       </c>
       <c r="G836">
-        <v>23.5</v>
+        <v>72.2</v>
       </c>
       <c r="H836">
-        <v>2011</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.25">
@@ -25128,22 +25128,22 @@
         <v>834</v>
       </c>
       <c r="C837">
-        <v>221394838</v>
+        <v>221303188</v>
       </c>
       <c r="D837">
-        <v>61524375</v>
+        <v>86303188</v>
       </c>
       <c r="E837">
-        <v>27.8</v>
+        <v>39</v>
       </c>
       <c r="F837">
-        <v>159870463</v>
+        <v>135000000</v>
       </c>
       <c r="G837">
-        <v>72.2</v>
+        <v>61</v>
       </c>
       <c r="H837">
-        <v>2023</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
@@ -25154,22 +25154,22 @@
         <v>835</v>
       </c>
       <c r="C838">
-        <v>221303188</v>
+        <v>220889446</v>
       </c>
       <c r="D838">
-        <v>86303188</v>
+        <v>116987516</v>
       </c>
       <c r="E838">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F838">
-        <v>135000000</v>
+        <v>103901930</v>
       </c>
       <c r="G838">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H838">
-        <v>1990</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.25">
@@ -25180,22 +25180,22 @@
         <v>836</v>
       </c>
       <c r="C839">
-        <v>220889446</v>
+        <v>220673217</v>
       </c>
       <c r="D839">
-        <v>116987516</v>
+        <v>110003217</v>
       </c>
       <c r="E839">
-        <v>53</v>
+        <v>49.8</v>
       </c>
       <c r="F839">
-        <v>103901930</v>
+        <v>110670000</v>
       </c>
       <c r="G839">
-        <v>47</v>
+        <v>50.2</v>
       </c>
       <c r="H839">
-        <v>2021</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.25">
@@ -25206,22 +25206,22 @@
         <v>837</v>
       </c>
       <c r="C840">
-        <v>220673217</v>
+        <v>220332985</v>
       </c>
       <c r="D840">
-        <v>110003217</v>
+        <v>88319668</v>
       </c>
       <c r="E840">
-        <v>49.8</v>
+        <v>40.1</v>
       </c>
       <c r="F840">
-        <v>110670000</v>
+        <v>132013317</v>
       </c>
       <c r="G840">
-        <v>50.2</v>
+        <v>59.9</v>
       </c>
       <c r="H840">
-        <v>2003</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
@@ -25232,22 +25232,22 @@
         <v>838</v>
       </c>
       <c r="C841">
-        <v>220332985</v>
+        <v>220240655</v>
       </c>
       <c r="D841">
-        <v>88319668</v>
+        <v>101005703</v>
       </c>
       <c r="E841">
-        <v>40.1</v>
+        <v>45.9</v>
       </c>
       <c r="F841">
-        <v>132013317</v>
+        <v>119234952</v>
       </c>
       <c r="G841">
-        <v>59.9</v>
+        <v>54.1</v>
       </c>
       <c r="H841">
-        <v>2023</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
@@ -25255,25 +25255,25 @@
         <v>841</v>
       </c>
       <c r="B842" t="s">
-        <v>839</v>
+        <v>585</v>
       </c>
       <c r="C842">
-        <v>220240655</v>
+        <v>220021735</v>
       </c>
       <c r="D842">
-        <v>101005703</v>
+        <v>125021735</v>
       </c>
       <c r="E842">
-        <v>45.9</v>
+        <v>56.8</v>
       </c>
       <c r="F842">
-        <v>119234952</v>
+        <v>95000000</v>
       </c>
       <c r="G842">
-        <v>54.1</v>
+        <v>43.2</v>
       </c>
       <c r="H842">
-        <v>2004</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.25">
@@ -25281,7 +25281,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C843">
         <v>220021259</v>
@@ -25307,7 +25307,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C844">
         <v>219922417</v>
@@ -25333,7 +25333,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C845">
         <v>219375562</v>
@@ -25359,7 +25359,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C846">
         <v>219103655</v>
@@ -25385,7 +25385,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C847">
         <v>219100084</v>
@@ -25411,7 +25411,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C848">
         <v>218791811</v>
@@ -25437,7 +25437,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C849">
         <v>218613188</v>
@@ -25463,7 +25463,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C850">
         <v>218366336</v>
@@ -25489,7 +25489,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C851">
         <v>218340595</v>
@@ -25515,7 +25515,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C852">
         <v>218075304</v>
@@ -25541,7 +25541,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C853">
         <v>218015531</v>
@@ -25567,7 +25567,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C854">
         <v>217776646</v>
@@ -25593,7 +25593,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C855">
         <v>217408513</v>
@@ -25619,7 +25619,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C856">
         <v>217254604</v>
@@ -25645,7 +25645,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C857">
         <v>217124280</v>
@@ -25671,25 +25671,25 @@
         <v>857</v>
       </c>
       <c r="B858" t="s">
-        <v>585</v>
+        <v>854</v>
       </c>
       <c r="C858">
-        <v>217000000</v>
+        <v>216940871</v>
       </c>
       <c r="D858">
-        <v>122000000</v>
+        <v>127440871</v>
       </c>
       <c r="E858">
-        <v>56.2</v>
+        <v>58.7</v>
       </c>
       <c r="F858">
-        <v>95000000</v>
+        <v>89500000</v>
       </c>
       <c r="G858">
-        <v>43.8</v>
+        <v>41.3</v>
       </c>
       <c r="H858">
-        <v>2025</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.25">
@@ -25700,22 +25700,22 @@
         <v>855</v>
       </c>
       <c r="C859">
-        <v>216940871</v>
+        <v>216763646</v>
       </c>
       <c r="D859">
-        <v>127440871</v>
+        <v>100492203</v>
       </c>
       <c r="E859">
-        <v>58.7</v>
+        <v>46.4</v>
       </c>
       <c r="F859">
-        <v>89500000</v>
+        <v>116271443</v>
       </c>
       <c r="G859">
-        <v>41.3</v>
+        <v>53.6</v>
       </c>
       <c r="H859">
-        <v>2016</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
@@ -25726,22 +25726,22 @@
         <v>856</v>
       </c>
       <c r="C860">
-        <v>216763646</v>
+        <v>216614388</v>
       </c>
       <c r="D860">
-        <v>100492203</v>
+        <v>111938388</v>
       </c>
       <c r="E860">
-        <v>46.4</v>
+        <v>51.7</v>
       </c>
       <c r="F860">
-        <v>116271443</v>
+        <v>104676000</v>
       </c>
       <c r="G860">
-        <v>53.6</v>
+        <v>48.3</v>
       </c>
       <c r="H860">
-        <v>2004</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
@@ -25752,22 +25752,22 @@
         <v>857</v>
       </c>
       <c r="C861">
-        <v>216614388</v>
+        <v>216528528</v>
       </c>
       <c r="D861">
-        <v>111938388</v>
+        <v>110528528</v>
       </c>
       <c r="E861">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="F861">
-        <v>104676000</v>
+        <v>106000000</v>
       </c>
       <c r="G861">
-        <v>48.3</v>
+        <v>49</v>
       </c>
       <c r="H861">
-        <v>1988</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
@@ -25778,22 +25778,22 @@
         <v>858</v>
       </c>
       <c r="C862">
-        <v>216528528</v>
+        <v>216385706</v>
       </c>
       <c r="D862">
-        <v>110528528</v>
+        <v>108185706</v>
       </c>
       <c r="E862">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F862">
-        <v>106000000</v>
+        <v>108200000</v>
       </c>
       <c r="G862">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H862">
-        <v>2010</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.25">
@@ -25804,22 +25804,22 @@
         <v>859</v>
       </c>
       <c r="C863">
-        <v>216385706</v>
+        <v>216197492</v>
       </c>
       <c r="D863">
-        <v>108185706</v>
+        <v>100292856</v>
       </c>
       <c r="E863">
-        <v>50</v>
+        <v>46.4</v>
       </c>
       <c r="F863">
-        <v>108200000</v>
+        <v>115904636</v>
       </c>
       <c r="G863">
-        <v>50</v>
+        <v>53.6</v>
       </c>
       <c r="H863">
-        <v>1981</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.25">
@@ -25830,22 +25830,22 @@
         <v>860</v>
       </c>
       <c r="C864">
-        <v>216197492</v>
+        <v>216000000</v>
       </c>
       <c r="D864">
-        <v>100292856</v>
+        <v>0</v>
       </c>
       <c r="E864">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="F864">
-        <v>115904636</v>
+        <v>216000000</v>
       </c>
       <c r="G864">
-        <v>53.6</v>
+        <v>100</v>
       </c>
       <c r="H864">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.25">
@@ -25856,19 +25856,19 @@
         <v>861</v>
       </c>
       <c r="C865">
-        <v>216000000</v>
+        <v>215905815</v>
       </c>
       <c r="D865">
-        <v>0</v>
+        <v>58568815</v>
       </c>
       <c r="E865">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="F865">
-        <v>216000000</v>
+        <v>157337000</v>
       </c>
       <c r="G865">
-        <v>100</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="H865">
         <v>2020</v>
@@ -25882,22 +25882,22 @@
         <v>862</v>
       </c>
       <c r="C866">
-        <v>215905815</v>
+        <v>215887717</v>
       </c>
       <c r="D866">
-        <v>58568815</v>
+        <v>122187717</v>
       </c>
       <c r="E866">
-        <v>27.1</v>
+        <v>56.6</v>
       </c>
       <c r="F866">
-        <v>157337000</v>
+        <v>93700000</v>
       </c>
       <c r="G866">
-        <v>72.900000000000006</v>
+        <v>43.4</v>
       </c>
       <c r="H866">
-        <v>2020</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.25">
@@ -25908,22 +25908,22 @@
         <v>863</v>
       </c>
       <c r="C867">
-        <v>215887717</v>
+        <v>215880014</v>
       </c>
       <c r="D867">
-        <v>122187717</v>
+        <v>144880014</v>
       </c>
       <c r="E867">
-        <v>56.6</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F867">
-        <v>93700000</v>
+        <v>71000000</v>
       </c>
       <c r="G867">
-        <v>43.4</v>
+        <v>32.9</v>
       </c>
       <c r="H867">
-        <v>1994</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
@@ -25934,22 +25934,22 @@
         <v>864</v>
       </c>
       <c r="C868">
-        <v>215880014</v>
+        <v>215863606</v>
       </c>
       <c r="D868">
-        <v>144880014</v>
+        <v>81476385</v>
       </c>
       <c r="E868">
-        <v>67.099999999999994</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F868">
-        <v>71000000</v>
+        <v>134387221</v>
       </c>
       <c r="G868">
-        <v>32.9</v>
+        <v>62.3</v>
       </c>
       <c r="H868">
-        <v>1961</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.25">
@@ -25960,22 +25960,22 @@
         <v>865</v>
       </c>
       <c r="C869">
-        <v>215863606</v>
+        <v>215862692</v>
       </c>
       <c r="D869">
-        <v>81476385</v>
+        <v>82522790</v>
       </c>
       <c r="E869">
-        <v>37.700000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F869">
-        <v>134387221</v>
+        <v>133339902</v>
       </c>
       <c r="G869">
-        <v>62.3</v>
+        <v>61.8</v>
       </c>
       <c r="H869">
-        <v>2015</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.25">
@@ -25986,22 +25986,22 @@
         <v>866</v>
       </c>
       <c r="C870">
-        <v>215862692</v>
+        <v>215663859</v>
       </c>
       <c r="D870">
-        <v>82522790</v>
+        <v>69243859</v>
       </c>
       <c r="E870">
-        <v>38.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="F870">
-        <v>133339902</v>
+        <v>146420000</v>
       </c>
       <c r="G870">
-        <v>61.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H870">
-        <v>1992</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.25">
@@ -26012,22 +26012,22 @@
         <v>867</v>
       </c>
       <c r="C871">
-        <v>215663859</v>
+        <v>215394738</v>
       </c>
       <c r="D871">
-        <v>69243859</v>
+        <v>112494738</v>
       </c>
       <c r="E871">
-        <v>32.1</v>
+        <v>52.2</v>
       </c>
       <c r="F871">
-        <v>146420000</v>
+        <v>102900000</v>
       </c>
       <c r="G871">
-        <v>67.900000000000006</v>
+        <v>47.8</v>
       </c>
       <c r="H871">
-        <v>2000</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
@@ -26038,22 +26038,22 @@
         <v>868</v>
       </c>
       <c r="C872">
-        <v>215394738</v>
+        <v>215294342</v>
       </c>
       <c r="D872">
-        <v>112494738</v>
+        <v>113330342</v>
       </c>
       <c r="E872">
-        <v>52.2</v>
+        <v>52.6</v>
       </c>
       <c r="F872">
-        <v>102900000</v>
+        <v>101964000</v>
       </c>
       <c r="G872">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="H872">
-        <v>1989</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
@@ -26064,22 +26064,22 @@
         <v>869</v>
       </c>
       <c r="C873">
-        <v>215294342</v>
+        <v>215283742</v>
       </c>
       <c r="D873">
-        <v>113330342</v>
+        <v>63150991</v>
       </c>
       <c r="E873">
-        <v>52.6</v>
+        <v>29.3</v>
       </c>
       <c r="F873">
-        <v>101964000</v>
+        <v>152132751</v>
       </c>
       <c r="G873">
-        <v>47.4</v>
+        <v>70.7</v>
       </c>
       <c r="H873">
-        <v>2000</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
@@ -26090,22 +26090,22 @@
         <v>870</v>
       </c>
       <c r="C874">
-        <v>215283742</v>
+        <v>214945591</v>
       </c>
       <c r="D874">
-        <v>63150991</v>
+        <v>103028109</v>
       </c>
       <c r="E874">
-        <v>29.3</v>
+        <v>47.9</v>
       </c>
       <c r="F874">
-        <v>152132751</v>
+        <v>111917482</v>
       </c>
       <c r="G874">
-        <v>70.7</v>
+        <v>52.1</v>
       </c>
       <c r="H874">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
@@ -26116,22 +26116,22 @@
         <v>871</v>
       </c>
       <c r="C875">
-        <v>214945591</v>
+        <v>214657577</v>
       </c>
       <c r="D875">
-        <v>103028109</v>
+        <v>39322544</v>
       </c>
       <c r="E875">
-        <v>47.9</v>
+        <v>18.3</v>
       </c>
       <c r="F875">
-        <v>111917482</v>
+        <v>175335033</v>
       </c>
       <c r="G875">
-        <v>52.1</v>
+        <v>81.7</v>
       </c>
       <c r="H875">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
@@ -26142,22 +26142,22 @@
         <v>872</v>
       </c>
       <c r="C876">
-        <v>214657577</v>
+        <v>214577242</v>
       </c>
       <c r="D876">
-        <v>39322544</v>
+        <v>64577242</v>
       </c>
       <c r="E876">
-        <v>18.3</v>
+        <v>30.1</v>
       </c>
       <c r="F876">
-        <v>175335033</v>
+        <v>150000000</v>
       </c>
       <c r="G876">
-        <v>81.7</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="H876">
-        <v>2014</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
@@ -26168,22 +26168,22 @@
         <v>873</v>
       </c>
       <c r="C877">
-        <v>214577242</v>
+        <v>214215889</v>
       </c>
       <c r="D877">
-        <v>64577242</v>
+        <v>115715889</v>
       </c>
       <c r="E877">
-        <v>30.1</v>
+        <v>54</v>
       </c>
       <c r="F877">
-        <v>150000000</v>
+        <v>98500000</v>
       </c>
       <c r="G877">
-        <v>69.900000000000006</v>
+        <v>46</v>
       </c>
       <c r="H877">
-        <v>1987</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
@@ -26194,22 +26194,22 @@
         <v>874</v>
       </c>
       <c r="C878">
-        <v>214215889</v>
+        <v>214104620</v>
       </c>
       <c r="D878">
-        <v>115715889</v>
+        <v>97104620</v>
       </c>
       <c r="E878">
-        <v>54</v>
+        <v>45.4</v>
       </c>
       <c r="F878">
-        <v>98500000</v>
+        <v>117000000</v>
       </c>
       <c r="G878">
-        <v>46</v>
+        <v>54.6</v>
       </c>
       <c r="H878">
-        <v>2018</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
@@ -26220,22 +26220,22 @@
         <v>875</v>
       </c>
       <c r="C879">
-        <v>214104620</v>
+        <v>214034224</v>
       </c>
       <c r="D879">
-        <v>97104620</v>
+        <v>121661683</v>
       </c>
       <c r="E879">
-        <v>45.4</v>
+        <v>56.8</v>
       </c>
       <c r="F879">
-        <v>117000000</v>
+        <v>92372541</v>
       </c>
       <c r="G879">
-        <v>54.6</v>
+        <v>43.2</v>
       </c>
       <c r="H879">
-        <v>2009</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
@@ -26246,22 +26246,22 @@
         <v>876</v>
       </c>
       <c r="C880">
-        <v>214034224</v>
+        <v>214015089</v>
       </c>
       <c r="D880">
-        <v>121661683</v>
+        <v>83015089</v>
       </c>
       <c r="E880">
-        <v>56.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F880">
-        <v>92372541</v>
+        <v>131000000</v>
       </c>
       <c r="G880">
-        <v>43.2</v>
+        <v>61.2</v>
       </c>
       <c r="H880">
-        <v>2002</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
@@ -26272,22 +26272,22 @@
         <v>877</v>
       </c>
       <c r="C881">
-        <v>214015089</v>
+        <v>213978518</v>
       </c>
       <c r="D881">
-        <v>83015089</v>
+        <v>128530421</v>
       </c>
       <c r="E881">
-        <v>38.799999999999997</v>
+        <v>60.1</v>
       </c>
       <c r="F881">
-        <v>131000000</v>
+        <v>85448097</v>
       </c>
       <c r="G881">
-        <v>61.2</v>
+        <v>39.9</v>
       </c>
       <c r="H881">
-        <v>1994</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
@@ -26298,22 +26298,22 @@
         <v>878</v>
       </c>
       <c r="C882">
-        <v>213978518</v>
+        <v>213928762</v>
       </c>
       <c r="D882">
-        <v>128530421</v>
+        <v>107928762</v>
       </c>
       <c r="E882">
-        <v>60.1</v>
+        <v>50.4</v>
       </c>
       <c r="F882">
-        <v>85448097</v>
+        <v>106000000</v>
       </c>
       <c r="G882">
-        <v>39.9</v>
+        <v>49.6</v>
       </c>
       <c r="H882">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
@@ -26324,22 +26324,22 @@
         <v>879</v>
       </c>
       <c r="C883">
-        <v>213928762</v>
+        <v>213719942</v>
       </c>
       <c r="D883">
-        <v>107928762</v>
+        <v>102610330</v>
       </c>
       <c r="E883">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="F883">
-        <v>106000000</v>
+        <v>111109612</v>
       </c>
       <c r="G883">
-        <v>49.6</v>
+        <v>52</v>
       </c>
       <c r="H883">
-        <v>1994</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
@@ -26350,22 +26350,22 @@
         <v>880</v>
       </c>
       <c r="C884">
-        <v>213719942</v>
+        <v>213216216</v>
       </c>
       <c r="D884">
-        <v>102610330</v>
+        <v>75609945</v>
       </c>
       <c r="E884">
-        <v>48</v>
+        <v>35.5</v>
       </c>
       <c r="F884">
-        <v>111109612</v>
+        <v>137606271</v>
       </c>
       <c r="G884">
-        <v>52</v>
+        <v>64.5</v>
       </c>
       <c r="H884">
-        <v>2004</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
@@ -26376,22 +26376,22 @@
         <v>881</v>
       </c>
       <c r="C885">
-        <v>213216216</v>
+        <v>212902959</v>
       </c>
       <c r="D885">
-        <v>75609945</v>
+        <v>128002372</v>
       </c>
       <c r="E885">
-        <v>35.5</v>
+        <v>60.1</v>
       </c>
       <c r="F885">
-        <v>137606271</v>
+        <v>84900587</v>
       </c>
       <c r="G885">
-        <v>64.5</v>
+        <v>39.9</v>
       </c>
       <c r="H885">
-        <v>1995</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.25">
@@ -26402,22 +26402,22 @@
         <v>882</v>
       </c>
       <c r="C886">
-        <v>212902959</v>
+        <v>212874864</v>
       </c>
       <c r="D886">
-        <v>128002372</v>
+        <v>110101975</v>
       </c>
       <c r="E886">
-        <v>60.1</v>
+        <v>51.7</v>
       </c>
       <c r="F886">
-        <v>84900587</v>
+        <v>102772889</v>
       </c>
       <c r="G886">
-        <v>39.9</v>
+        <v>48.3</v>
       </c>
       <c r="H886">
-        <v>2014</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.25">
@@ -26428,22 +26428,22 @@
         <v>883</v>
       </c>
       <c r="C887">
-        <v>212874864</v>
+        <v>212758656</v>
       </c>
       <c r="D887">
-        <v>110101975</v>
+        <v>100546139</v>
       </c>
       <c r="E887">
-        <v>51.7</v>
+        <v>47.3</v>
       </c>
       <c r="F887">
-        <v>102772889</v>
+        <v>112212517</v>
       </c>
       <c r="G887">
-        <v>48.3</v>
+        <v>52.7</v>
       </c>
       <c r="H887">
-        <v>2008</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
@@ -26454,22 +26454,22 @@
         <v>884</v>
       </c>
       <c r="C888">
-        <v>212758656</v>
+        <v>212758130</v>
       </c>
       <c r="D888">
-        <v>100546139</v>
+        <v>106807667</v>
       </c>
       <c r="E888">
-        <v>47.3</v>
+        <v>50.2</v>
       </c>
       <c r="F888">
-        <v>112212517</v>
+        <v>105950463</v>
       </c>
       <c r="G888">
-        <v>52.7</v>
+        <v>49.8</v>
       </c>
       <c r="H888">
-        <v>2016</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
@@ -26480,22 +26480,22 @@
         <v>885</v>
       </c>
       <c r="C889">
-        <v>212758130</v>
+        <v>212404396</v>
       </c>
       <c r="D889">
-        <v>106807667</v>
+        <v>87704396</v>
       </c>
       <c r="E889">
-        <v>50.2</v>
+        <v>41.3</v>
       </c>
       <c r="F889">
-        <v>105950463</v>
+        <v>124700000</v>
       </c>
       <c r="G889">
-        <v>49.8</v>
+        <v>58.7</v>
       </c>
       <c r="H889">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.25">
@@ -26506,22 +26506,22 @@
         <v>886</v>
       </c>
       <c r="C890">
-        <v>212404396</v>
+        <v>212385533</v>
       </c>
       <c r="D890">
-        <v>87704396</v>
+        <v>108385533</v>
       </c>
       <c r="E890">
-        <v>41.3</v>
+        <v>51</v>
       </c>
       <c r="F890">
-        <v>124700000</v>
+        <v>104000000</v>
       </c>
       <c r="G890">
-        <v>58.7</v>
+        <v>49</v>
       </c>
       <c r="H890">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.25">
@@ -26532,22 +26532,22 @@
         <v>887</v>
       </c>
       <c r="C891">
-        <v>212385533</v>
+        <v>211989043</v>
       </c>
       <c r="D891">
-        <v>108385533</v>
+        <v>66889043</v>
       </c>
       <c r="E891">
-        <v>51</v>
+        <v>31.6</v>
       </c>
       <c r="F891">
-        <v>104000000</v>
+        <v>145100000</v>
       </c>
       <c r="G891">
-        <v>49</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H891">
-        <v>1995</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.25">
@@ -26558,22 +26558,22 @@
         <v>888</v>
       </c>
       <c r="C892">
-        <v>211989043</v>
+        <v>211952420</v>
       </c>
       <c r="D892">
-        <v>66889043</v>
+        <v>24252420</v>
       </c>
       <c r="E892">
-        <v>31.6</v>
+        <v>11.4</v>
       </c>
       <c r="F892">
-        <v>145100000</v>
+        <v>187700000</v>
       </c>
       <c r="G892">
-        <v>68.400000000000006</v>
+        <v>88.6</v>
       </c>
       <c r="H892">
-        <v>1999</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.25">
@@ -26584,22 +26584,22 @@
         <v>889</v>
       </c>
       <c r="C893">
-        <v>211952420</v>
+        <v>211822697</v>
       </c>
       <c r="D893">
-        <v>24252420</v>
+        <v>85817906</v>
       </c>
       <c r="E893">
-        <v>11.4</v>
+        <v>40.5</v>
       </c>
       <c r="F893">
-        <v>187700000</v>
+        <v>126004791</v>
       </c>
       <c r="G893">
-        <v>88.6</v>
+        <v>59.5</v>
       </c>
       <c r="H893">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.25">
@@ -26610,22 +26610,22 @@
         <v>890</v>
       </c>
       <c r="C894">
-        <v>211822697</v>
+        <v>211819354</v>
       </c>
       <c r="D894">
-        <v>85817906</v>
+        <v>83552429</v>
       </c>
       <c r="E894">
-        <v>40.5</v>
+        <v>39.4</v>
       </c>
       <c r="F894">
-        <v>126004791</v>
+        <v>128266925</v>
       </c>
       <c r="G894">
-        <v>59.5</v>
+        <v>60.6</v>
       </c>
       <c r="H894">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.25">
@@ -26636,22 +26636,22 @@
         <v>891</v>
       </c>
       <c r="C895">
-        <v>211819354</v>
+        <v>211789111</v>
       </c>
       <c r="D895">
-        <v>83552429</v>
+        <v>49554002</v>
       </c>
       <c r="E895">
-        <v>39.4</v>
+        <v>23.4</v>
       </c>
       <c r="F895">
-        <v>128266925</v>
+        <v>162235109</v>
       </c>
       <c r="G895">
-        <v>60.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="H895">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.25">
@@ -26662,22 +26662,22 @@
         <v>892</v>
       </c>
       <c r="C896">
-        <v>211789111</v>
+        <v>211780824</v>
       </c>
       <c r="D896">
-        <v>49554002</v>
+        <v>100539043</v>
       </c>
       <c r="E896">
-        <v>23.4</v>
+        <v>47.5</v>
       </c>
       <c r="F896">
-        <v>162235109</v>
+        <v>111241781</v>
       </c>
       <c r="G896">
-        <v>76.599999999999994</v>
+        <v>52.5</v>
       </c>
       <c r="H896">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.25">
@@ -26688,22 +26688,22 @@
         <v>893</v>
       </c>
       <c r="C897">
-        <v>211780824</v>
+        <v>211622535</v>
       </c>
       <c r="D897">
-        <v>100539043</v>
+        <v>93927920</v>
       </c>
       <c r="E897">
-        <v>47.5</v>
+        <v>44.4</v>
       </c>
       <c r="F897">
-        <v>111241781</v>
+        <v>117694615</v>
       </c>
       <c r="G897">
-        <v>52.5</v>
+        <v>55.6</v>
       </c>
       <c r="H897">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.25">
@@ -26714,22 +26714,22 @@
         <v>894</v>
       </c>
       <c r="C898">
-        <v>211622535</v>
+        <v>211468235</v>
       </c>
       <c r="D898">
-        <v>93927920</v>
+        <v>118634549</v>
       </c>
       <c r="E898">
-        <v>44.4</v>
+        <v>56.1</v>
       </c>
       <c r="F898">
-        <v>117694615</v>
+        <v>92833686</v>
       </c>
       <c r="G898">
-        <v>55.6</v>
+        <v>43.9</v>
       </c>
       <c r="H898">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.25">
@@ -26737,25 +26737,25 @@
         <v>898</v>
       </c>
       <c r="B899" t="s">
-        <v>895</v>
+        <v>218</v>
       </c>
       <c r="C899">
-        <v>211468235</v>
+        <v>211343479</v>
       </c>
       <c r="D899">
-        <v>118634549</v>
+        <v>111543479</v>
       </c>
       <c r="E899">
-        <v>56.1</v>
+        <v>52.8</v>
       </c>
       <c r="F899">
-        <v>92833686</v>
+        <v>99800000</v>
       </c>
       <c r="G899">
-        <v>43.9</v>
+        <v>47.2</v>
       </c>
       <c r="H899">
-        <v>2004</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.25">
@@ -26763,25 +26763,25 @@
         <v>899</v>
       </c>
       <c r="B900" t="s">
-        <v>218</v>
+        <v>895</v>
       </c>
       <c r="C900">
-        <v>211343479</v>
+        <v>211019042</v>
       </c>
       <c r="D900">
-        <v>111543479</v>
+        <v>0</v>
       </c>
       <c r="E900">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="F900">
-        <v>99800000</v>
+        <v>211019042</v>
       </c>
       <c r="G900">
-        <v>47.2</v>
+        <v>100</v>
       </c>
       <c r="H900">
-        <v>1989</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.25">
@@ -26792,22 +26792,22 @@
         <v>896</v>
       </c>
       <c r="C901">
-        <v>211019042</v>
+        <v>210889681</v>
       </c>
       <c r="D901">
-        <v>0</v>
+        <v>115646235</v>
       </c>
       <c r="E901">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="F901">
-        <v>211019042</v>
+        <v>95243446</v>
       </c>
       <c r="G901">
-        <v>100</v>
+        <v>45.2</v>
       </c>
       <c r="H901">
-        <v>2022</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.25">
@@ -26818,22 +26818,22 @@
         <v>897</v>
       </c>
       <c r="C902">
-        <v>210889681</v>
+        <v>210308099</v>
       </c>
       <c r="D902">
-        <v>115646235</v>
+        <v>70308099</v>
       </c>
       <c r="E902">
-        <v>54.8</v>
+        <v>33.4</v>
       </c>
       <c r="F902">
-        <v>95243446</v>
+        <v>140000000</v>
       </c>
       <c r="G902">
-        <v>45.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H902">
-        <v>2009</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.25">
@@ -26844,22 +26844,22 @@
         <v>898</v>
       </c>
       <c r="C903">
-        <v>210308099</v>
+        <v>210002906</v>
       </c>
       <c r="D903">
-        <v>70308099</v>
+        <v>96578502</v>
       </c>
       <c r="E903">
-        <v>33.4</v>
+        <v>46</v>
       </c>
       <c r="F903">
-        <v>140000000</v>
+        <v>113424404</v>
       </c>
       <c r="G903">
-        <v>66.599999999999994</v>
+        <v>54</v>
       </c>
       <c r="H903">
-        <v>1979</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.25">
@@ -26870,22 +26870,22 @@
         <v>899</v>
       </c>
       <c r="C904">
-        <v>210002906</v>
+        <v>209838559</v>
       </c>
       <c r="D904">
-        <v>96578502</v>
+        <v>117538559</v>
       </c>
       <c r="E904">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F904">
-        <v>113424404</v>
+        <v>92300000</v>
       </c>
       <c r="G904">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H904">
-        <v>2001</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.25">
@@ -26896,22 +26896,22 @@
         <v>900</v>
       </c>
       <c r="C905">
-        <v>209838559</v>
+        <v>209646030</v>
       </c>
       <c r="D905">
-        <v>117538559</v>
+        <v>103270155</v>
       </c>
       <c r="E905">
-        <v>56</v>
+        <v>49.3</v>
       </c>
       <c r="F905">
-        <v>92300000</v>
+        <v>106375875</v>
       </c>
       <c r="G905">
-        <v>44</v>
+        <v>50.7</v>
       </c>
       <c r="H905">
-        <v>2011</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.25">
@@ -26922,22 +26922,22 @@
         <v>901</v>
       </c>
       <c r="C906">
-        <v>209646030</v>
+        <v>209221380</v>
       </c>
       <c r="D906">
-        <v>103270155</v>
+        <v>0</v>
       </c>
       <c r="E906">
-        <v>49.3</v>
+        <v>0</v>
       </c>
       <c r="F906">
-        <v>106375875</v>
+        <v>209221380</v>
       </c>
       <c r="G906">
-        <v>50.7</v>
+        <v>100</v>
       </c>
       <c r="H906">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.25">
@@ -26948,22 +26948,22 @@
         <v>902</v>
       </c>
       <c r="C907">
-        <v>209221380</v>
+        <v>209196298</v>
       </c>
       <c r="D907">
-        <v>0</v>
+        <v>93149898</v>
       </c>
       <c r="E907">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="F907">
-        <v>209221380</v>
+        <v>116046400</v>
       </c>
       <c r="G907">
-        <v>100</v>
+        <v>55.5</v>
       </c>
       <c r="H907">
-        <v>2018</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.25">
@@ -26974,22 +26974,22 @@
         <v>903</v>
       </c>
       <c r="C908">
-        <v>209196298</v>
+        <v>209035668</v>
       </c>
       <c r="D908">
-        <v>93149898</v>
+        <v>93436322</v>
       </c>
       <c r="E908">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="F908">
-        <v>116046400</v>
+        <v>115599346</v>
       </c>
       <c r="G908">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="H908">
-        <v>2002</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.25">
@@ -27000,22 +27000,22 @@
         <v>904</v>
       </c>
       <c r="C909">
-        <v>209035668</v>
+        <v>208445075</v>
       </c>
       <c r="D909">
-        <v>93436322</v>
+        <v>56245075</v>
       </c>
       <c r="E909">
-        <v>44.7</v>
+        <v>27</v>
       </c>
       <c r="F909">
-        <v>115599346</v>
+        <v>152200000</v>
       </c>
       <c r="G909">
-        <v>55.3</v>
+        <v>73</v>
       </c>
       <c r="H909">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.25">
@@ -27026,22 +27026,22 @@
         <v>905</v>
       </c>
       <c r="C910">
-        <v>208445075</v>
+        <v>208076205</v>
       </c>
       <c r="D910">
-        <v>56245075</v>
+        <v>126373434</v>
       </c>
       <c r="E910">
-        <v>27</v>
+        <v>60.7</v>
       </c>
       <c r="F910">
-        <v>152200000</v>
+        <v>81702771</v>
       </c>
       <c r="G910">
-        <v>73</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H910">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.25">
@@ -27052,22 +27052,22 @@
         <v>906</v>
       </c>
       <c r="C911">
-        <v>208076205</v>
+        <v>207725639</v>
       </c>
       <c r="D911">
-        <v>126373434</v>
+        <v>116934650</v>
       </c>
       <c r="E911">
-        <v>60.7</v>
+        <v>56.3</v>
       </c>
       <c r="F911">
-        <v>81702771</v>
+        <v>90790989</v>
       </c>
       <c r="G911">
-        <v>39.299999999999997</v>
+        <v>43.7</v>
       </c>
       <c r="H911">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
@@ -27078,22 +27078,22 @@
         <v>907</v>
       </c>
       <c r="C912">
-        <v>207725639</v>
+        <v>207557117</v>
       </c>
       <c r="D912">
-        <v>116934650</v>
+        <v>93657117</v>
       </c>
       <c r="E912">
-        <v>56.3</v>
+        <v>45.1</v>
       </c>
       <c r="F912">
-        <v>90790989</v>
+        <v>113900000</v>
       </c>
       <c r="G912">
-        <v>43.7</v>
+        <v>54.9</v>
       </c>
       <c r="H912">
-        <v>2003</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.25">
@@ -27104,22 +27104,22 @@
         <v>908</v>
       </c>
       <c r="C913">
-        <v>207557117</v>
+        <v>207517995</v>
       </c>
       <c r="D913">
-        <v>93657117</v>
+        <v>144745925</v>
       </c>
       <c r="E913">
-        <v>45.1</v>
+        <v>69.8</v>
       </c>
       <c r="F913">
-        <v>113900000</v>
+        <v>62772070</v>
       </c>
       <c r="G913">
-        <v>54.9</v>
+        <v>30.2</v>
       </c>
       <c r="H913">
-        <v>2022</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.25">
@@ -27130,22 +27130,22 @@
         <v>909</v>
       </c>
       <c r="C914">
-        <v>207517995</v>
+        <v>207515725</v>
       </c>
       <c r="D914">
-        <v>144745925</v>
+        <v>124115725</v>
       </c>
       <c r="E914">
-        <v>69.8</v>
+        <v>59.8</v>
       </c>
       <c r="F914">
-        <v>62772070</v>
+        <v>83400000</v>
       </c>
       <c r="G914">
-        <v>30.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H914">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.25">
@@ -27156,22 +27156,22 @@
         <v>910</v>
       </c>
       <c r="C915">
-        <v>207515725</v>
+        <v>207500287</v>
       </c>
       <c r="D915">
-        <v>124115725</v>
+        <v>58300287</v>
       </c>
       <c r="E915">
-        <v>59.8</v>
+        <v>28.1</v>
       </c>
       <c r="F915">
-        <v>83400000</v>
+        <v>149200000</v>
       </c>
       <c r="G915">
-        <v>40.200000000000003</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H915">
-        <v>2000</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.25">
@@ -27182,22 +27182,22 @@
         <v>911</v>
       </c>
       <c r="C916">
-        <v>207500287</v>
+        <v>207039844</v>
       </c>
       <c r="D916">
-        <v>58300287</v>
+        <v>104028807</v>
       </c>
       <c r="E916">
-        <v>28.1</v>
+        <v>50.2</v>
       </c>
       <c r="F916">
-        <v>149200000</v>
+        <v>103011037</v>
       </c>
       <c r="G916">
-        <v>71.900000000000006</v>
+        <v>49.8</v>
       </c>
       <c r="H916">
-        <v>2024</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.25">
@@ -27208,22 +27208,22 @@
         <v>912</v>
       </c>
       <c r="C917">
-        <v>207039844</v>
+        <v>206678440</v>
       </c>
       <c r="D917">
-        <v>104028807</v>
+        <v>77446440</v>
       </c>
       <c r="E917">
-        <v>50.2</v>
+        <v>37.5</v>
       </c>
       <c r="F917">
-        <v>103011037</v>
+        <v>129232000</v>
       </c>
       <c r="G917">
-        <v>49.8</v>
+        <v>62.5</v>
       </c>
       <c r="H917">
-        <v>2011</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.25">
@@ -27234,22 +27234,22 @@
         <v>913</v>
       </c>
       <c r="C918">
-        <v>206678440</v>
+        <v>206468321</v>
       </c>
       <c r="D918">
-        <v>77446440</v>
+        <v>16543471</v>
       </c>
       <c r="E918">
-        <v>37.5</v>
+        <v>8</v>
       </c>
       <c r="F918">
-        <v>129232000</v>
+        <v>189924850</v>
       </c>
       <c r="G918">
-        <v>62.5</v>
+        <v>92</v>
       </c>
       <c r="H918">
-        <v>1993</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.25">
@@ -27260,22 +27260,22 @@
         <v>914</v>
       </c>
       <c r="C919">
-        <v>206468321</v>
+        <v>206431050</v>
       </c>
       <c r="D919">
-        <v>16543471</v>
+        <v>65631050</v>
       </c>
       <c r="E919">
-        <v>8</v>
+        <v>31.8</v>
       </c>
       <c r="F919">
-        <v>189924850</v>
+        <v>140800000</v>
       </c>
       <c r="G919">
-        <v>92</v>
+        <v>68.2</v>
       </c>
       <c r="H919">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.25">
@@ -27286,22 +27286,22 @@
         <v>915</v>
       </c>
       <c r="C920">
-        <v>206431050</v>
+        <v>206136825</v>
       </c>
       <c r="D920">
-        <v>65631050</v>
+        <v>84500223</v>
       </c>
       <c r="E920">
-        <v>31.8</v>
+        <v>41</v>
       </c>
       <c r="F920">
-        <v>140800000</v>
+        <v>121636602</v>
       </c>
       <c r="G920">
-        <v>68.2</v>
+        <v>59</v>
       </c>
       <c r="H920">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.25">
@@ -27312,22 +27312,22 @@
         <v>916</v>
       </c>
       <c r="C921">
-        <v>206136825</v>
+        <v>206071526</v>
       </c>
       <c r="D921">
-        <v>84500223</v>
+        <v>101071502</v>
       </c>
       <c r="E921">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F921">
-        <v>121636602</v>
+        <v>105000024</v>
       </c>
       <c r="G921">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H921">
-        <v>2023</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.25">
@@ -27335,25 +27335,25 @@
         <v>921</v>
       </c>
       <c r="B922" t="s">
-        <v>917</v>
+        <v>69</v>
       </c>
       <c r="C922">
-        <v>206071526</v>
+        <v>205843612</v>
       </c>
       <c r="D922">
-        <v>101071502</v>
+        <v>141843612</v>
       </c>
       <c r="E922">
-        <v>49</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F922">
-        <v>105000024</v>
+        <v>64000000</v>
       </c>
       <c r="G922">
-        <v>51</v>
+        <v>31.1</v>
       </c>
       <c r="H922">
-        <v>1999</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.25">
@@ -27361,25 +27361,25 @@
         <v>922</v>
       </c>
       <c r="B923" t="s">
-        <v>69</v>
+        <v>917</v>
       </c>
       <c r="C923">
-        <v>205843612</v>
+        <v>205842393</v>
       </c>
       <c r="D923">
-        <v>141843612</v>
+        <v>385305</v>
       </c>
       <c r="E923">
-        <v>68.900000000000006</v>
+        <v>0.2</v>
       </c>
       <c r="F923">
-        <v>64000000</v>
+        <v>205457088</v>
       </c>
       <c r="G923">
-        <v>31.1</v>
+        <v>99.8</v>
       </c>
       <c r="H923">
-        <v>1967</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.25">
@@ -27390,22 +27390,22 @@
         <v>918</v>
       </c>
       <c r="C924">
-        <v>205842393</v>
+        <v>205754447</v>
       </c>
       <c r="D924">
-        <v>385305</v>
+        <v>62524260</v>
       </c>
       <c r="E924">
-        <v>0.2</v>
+        <v>30.4</v>
       </c>
       <c r="F924">
-        <v>205457088</v>
+        <v>143230187</v>
       </c>
       <c r="G924">
-        <v>99.8</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="H924">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.25">
@@ -27416,22 +27416,22 @@
         <v>919</v>
       </c>
       <c r="C925">
-        <v>205754447</v>
+        <v>205679463</v>
       </c>
       <c r="D925">
-        <v>62524260</v>
+        <v>87203963</v>
       </c>
       <c r="E925">
-        <v>30.4</v>
+        <v>42.4</v>
       </c>
       <c r="F925">
-        <v>143230187</v>
+        <v>118475500</v>
       </c>
       <c r="G925">
-        <v>69.599999999999994</v>
+        <v>57.6</v>
       </c>
       <c r="H925">
-        <v>2016</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.25">
@@ -27442,22 +27442,22 @@
         <v>920</v>
       </c>
       <c r="C926">
-        <v>205679463</v>
+        <v>205668210</v>
       </c>
       <c r="D926">
-        <v>87203963</v>
+        <v>118703275</v>
       </c>
       <c r="E926">
-        <v>42.4</v>
+        <v>57.7</v>
       </c>
       <c r="F926">
-        <v>118475500</v>
+        <v>86964935</v>
       </c>
       <c r="G926">
-        <v>57.6</v>
+        <v>42.3</v>
       </c>
       <c r="H926">
-        <v>2025</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.25">
@@ -27468,22 +27468,22 @@
         <v>921</v>
       </c>
       <c r="C927">
-        <v>205668210</v>
+        <v>205637183</v>
       </c>
       <c r="D927">
-        <v>118703275</v>
+        <v>18058</v>
       </c>
       <c r="E927">
-        <v>57.7</v>
+        <v>0.1</v>
       </c>
       <c r="F927">
-        <v>86964935</v>
+        <v>205619125</v>
       </c>
       <c r="G927">
-        <v>42.3</v>
+        <v>100</v>
       </c>
       <c r="H927">
-        <v>2006</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.25">
@@ -27494,22 +27494,22 @@
         <v>922</v>
       </c>
       <c r="C928">
-        <v>205637183</v>
+        <v>205599393</v>
       </c>
       <c r="D928">
-        <v>18058</v>
+        <v>88915214</v>
       </c>
       <c r="E928">
-        <v>0.1</v>
+        <v>43.2</v>
       </c>
       <c r="F928">
-        <v>205619125</v>
+        <v>116684179</v>
       </c>
       <c r="G928">
-        <v>100</v>
+        <v>56.8</v>
       </c>
       <c r="H928">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
@@ -27520,22 +27520,22 @@
         <v>923</v>
       </c>
       <c r="C929">
-        <v>205599393</v>
+        <v>205537933</v>
       </c>
       <c r="D929">
-        <v>88915214</v>
+        <v>84172791</v>
       </c>
       <c r="E929">
-        <v>43.2</v>
+        <v>41</v>
       </c>
       <c r="F929">
-        <v>116684179</v>
+        <v>121365142</v>
       </c>
       <c r="G929">
-        <v>56.8</v>
+        <v>59</v>
       </c>
       <c r="H929">
-        <v>2009</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
@@ -27546,22 +27546,22 @@
         <v>924</v>
       </c>
       <c r="C930">
-        <v>205537933</v>
+        <v>205460387</v>
       </c>
       <c r="D930">
-        <v>84172791</v>
+        <v>93549650</v>
       </c>
       <c r="E930">
-        <v>41</v>
+        <v>45.5</v>
       </c>
       <c r="F930">
-        <v>121365142</v>
+        <v>111910737</v>
       </c>
       <c r="G930">
-        <v>59</v>
+        <v>54.5</v>
       </c>
       <c r="H930">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.25">
@@ -27572,22 +27572,22 @@
         <v>925</v>
       </c>
       <c r="C931">
-        <v>205460387</v>
+        <v>205405498</v>
       </c>
       <c r="D931">
-        <v>93549650</v>
+        <v>70405498</v>
       </c>
       <c r="E931">
-        <v>45.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F931">
-        <v>111910737</v>
+        <v>135000000</v>
       </c>
       <c r="G931">
-        <v>54.5</v>
+        <v>65.7</v>
       </c>
       <c r="H931">
-        <v>2023</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.25">
@@ -27598,22 +27598,22 @@
         <v>926</v>
       </c>
       <c r="C932">
-        <v>205405498</v>
+        <v>205366737</v>
       </c>
       <c r="D932">
-        <v>70405498</v>
+        <v>73103784</v>
       </c>
       <c r="E932">
-        <v>34.299999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="F932">
-        <v>135000000</v>
+        <v>132262953</v>
       </c>
       <c r="G932">
-        <v>65.7</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H932">
-        <v>1991</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.25">
@@ -27624,22 +27624,22 @@
         <v>927</v>
       </c>
       <c r="C933">
-        <v>205366737</v>
+        <v>205219880</v>
       </c>
       <c r="D933">
-        <v>73103784</v>
+        <v>63224849</v>
       </c>
       <c r="E933">
-        <v>35.6</v>
+        <v>30.8</v>
       </c>
       <c r="F933">
-        <v>132262953</v>
+        <v>141995031</v>
       </c>
       <c r="G933">
-        <v>64.400000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="H933">
-        <v>2013</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.25">
@@ -27650,22 +27650,22 @@
         <v>928</v>
       </c>
       <c r="C934">
-        <v>205219880</v>
+        <v>205098869</v>
       </c>
       <c r="D934">
-        <v>63224849</v>
+        <v>65343309</v>
       </c>
       <c r="E934">
-        <v>30.8</v>
+        <v>31.9</v>
       </c>
       <c r="F934">
-        <v>141995031</v>
+        <v>139755560</v>
       </c>
       <c r="G934">
-        <v>69.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="H934">
-        <v>2006</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.25">
@@ -27676,22 +27676,22 @@
         <v>929</v>
       </c>
       <c r="C935">
-        <v>205098869</v>
+        <v>205035819</v>
       </c>
       <c r="D935">
-        <v>65343309</v>
+        <v>64508620</v>
       </c>
       <c r="E935">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="F935">
-        <v>139755560</v>
+        <v>140527199</v>
       </c>
       <c r="G935">
-        <v>68.099999999999994</v>
+        <v>68.5</v>
       </c>
       <c r="H935">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
@@ -27702,22 +27702,22 @@
         <v>930</v>
       </c>
       <c r="C936">
-        <v>205035819</v>
+        <v>204681899</v>
       </c>
       <c r="D936">
-        <v>64508620</v>
+        <v>110332737</v>
       </c>
       <c r="E936">
-        <v>31.5</v>
+        <v>53.9</v>
       </c>
       <c r="F936">
-        <v>140527199</v>
+        <v>94349162</v>
       </c>
       <c r="G936">
-        <v>68.5</v>
+        <v>46.1</v>
       </c>
       <c r="H936">
-        <v>2017</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
@@ -27728,22 +27728,22 @@
         <v>931</v>
       </c>
       <c r="C937">
-        <v>204681899</v>
+        <v>204596571</v>
       </c>
       <c r="D937">
-        <v>110332737</v>
+        <v>80574010</v>
       </c>
       <c r="E937">
-        <v>53.9</v>
+        <v>39.4</v>
       </c>
       <c r="F937">
-        <v>94349162</v>
+        <v>124022561</v>
       </c>
       <c r="G937">
-        <v>46.1</v>
+        <v>60.6</v>
       </c>
       <c r="H937">
-        <v>2005</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.25">
@@ -27754,22 +27754,22 @@
         <v>932</v>
       </c>
       <c r="C938">
-        <v>204596571</v>
+        <v>204445747</v>
       </c>
       <c r="D938">
-        <v>80574010</v>
+        <v>129471867</v>
       </c>
       <c r="E938">
-        <v>39.4</v>
+        <v>63.3</v>
       </c>
       <c r="F938">
-        <v>124022561</v>
+        <v>74973880</v>
       </c>
       <c r="G938">
-        <v>60.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H938">
-        <v>2010</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.25">
@@ -27780,22 +27780,22 @@
         <v>933</v>
       </c>
       <c r="C939">
-        <v>204445747</v>
+        <v>204394183</v>
       </c>
       <c r="D939">
-        <v>129471867</v>
+        <v>100723831</v>
       </c>
       <c r="E939">
-        <v>63.3</v>
+        <v>49.3</v>
       </c>
       <c r="F939">
-        <v>74973880</v>
+        <v>103670352</v>
       </c>
       <c r="G939">
-        <v>36.700000000000003</v>
+        <v>50.7</v>
       </c>
       <c r="H939">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
@@ -27806,22 +27806,22 @@
         <v>934</v>
       </c>
       <c r="C940">
-        <v>204394183</v>
+        <v>204313400</v>
       </c>
       <c r="D940">
-        <v>100723831</v>
+        <v>100018837</v>
       </c>
       <c r="E940">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="F940">
-        <v>103670352</v>
+        <v>104294563</v>
       </c>
       <c r="G940">
-        <v>50.7</v>
+        <v>51</v>
       </c>
       <c r="H940">
-        <v>2019</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
@@ -27832,22 +27832,22 @@
         <v>935</v>
       </c>
       <c r="C941">
-        <v>204313400</v>
+        <v>203631405</v>
       </c>
       <c r="D941">
-        <v>100018837</v>
+        <v>118946291</v>
       </c>
       <c r="E941">
-        <v>49</v>
+        <v>58.4</v>
       </c>
       <c r="F941">
-        <v>104294563</v>
+        <v>84685114</v>
       </c>
       <c r="G941">
-        <v>51</v>
+        <v>41.6</v>
       </c>
       <c r="H941">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.25">
@@ -27858,22 +27858,22 @@
         <v>936</v>
       </c>
       <c r="C942">
-        <v>203631405</v>
+        <v>203567857</v>
       </c>
       <c r="D942">
-        <v>118946291</v>
+        <v>51882244</v>
       </c>
       <c r="E942">
-        <v>58.4</v>
+        <v>25.5</v>
       </c>
       <c r="F942">
-        <v>84685114</v>
+        <v>151685613</v>
       </c>
       <c r="G942">
-        <v>41.6</v>
+        <v>74.5</v>
       </c>
       <c r="H942">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.25">
@@ -27884,22 +27884,22 @@
         <v>937</v>
       </c>
       <c r="C943">
-        <v>203567857</v>
+        <v>203509374</v>
       </c>
       <c r="D943">
-        <v>51882244</v>
+        <v>100246011</v>
       </c>
       <c r="E943">
-        <v>25.5</v>
+        <v>49.3</v>
       </c>
       <c r="F943">
-        <v>151685613</v>
+        <v>103263363</v>
       </c>
       <c r="G943">
-        <v>74.5</v>
+        <v>50.7</v>
       </c>
       <c r="H943">
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.25">
@@ -27910,22 +27910,22 @@
         <v>938</v>
       </c>
       <c r="C944">
-        <v>203509374</v>
+        <v>203427584</v>
       </c>
       <c r="D944">
-        <v>100246011</v>
+        <v>43482270</v>
       </c>
       <c r="E944">
-        <v>49.3</v>
+        <v>21.4</v>
       </c>
       <c r="F944">
-        <v>103263363</v>
+        <v>159945314</v>
       </c>
       <c r="G944">
-        <v>50.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H944">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.25">
@@ -27936,22 +27936,22 @@
         <v>939</v>
       </c>
       <c r="C945">
-        <v>203427584</v>
+        <v>203388341</v>
       </c>
       <c r="D945">
-        <v>43482270</v>
+        <v>100618344</v>
       </c>
       <c r="E945">
-        <v>21.4</v>
+        <v>49.5</v>
       </c>
       <c r="F945">
-        <v>159945314</v>
+        <v>102769997</v>
       </c>
       <c r="G945">
-        <v>78.599999999999994</v>
+        <v>50.5</v>
       </c>
       <c r="H945">
-        <v>2015</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.25">
@@ -27962,22 +27962,22 @@
         <v>940</v>
       </c>
       <c r="C946">
-        <v>203388341</v>
+        <v>203277636</v>
       </c>
       <c r="D946">
-        <v>100618344</v>
+        <v>43577636</v>
       </c>
       <c r="E946">
-        <v>49.5</v>
+        <v>21.4</v>
       </c>
       <c r="F946">
-        <v>102769997</v>
+        <v>159700000</v>
       </c>
       <c r="G946">
-        <v>50.5</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H946">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.25">
@@ -27988,22 +27988,22 @@
         <v>941</v>
       </c>
       <c r="C947">
-        <v>203277636</v>
+        <v>203172417</v>
       </c>
       <c r="D947">
-        <v>43577636</v>
+        <v>75369589</v>
       </c>
       <c r="E947">
-        <v>21.4</v>
+        <v>37.1</v>
       </c>
       <c r="F947">
-        <v>159700000</v>
+        <v>127802828</v>
       </c>
       <c r="G947">
-        <v>78.599999999999994</v>
+        <v>62.9</v>
       </c>
       <c r="H947">
-        <v>2014</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.25">
@@ -28014,22 +28014,22 @@
         <v>942</v>
       </c>
       <c r="C948">
-        <v>203172417</v>
+        <v>202292902</v>
       </c>
       <c r="D948">
-        <v>75369589</v>
+        <v>135026902</v>
       </c>
       <c r="E948">
-        <v>37.1</v>
+        <v>66.8</v>
       </c>
       <c r="F948">
-        <v>127802828</v>
+        <v>67266000</v>
       </c>
       <c r="G948">
-        <v>62.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H948">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.25">
@@ -28037,25 +28037,25 @@
         <v>948</v>
       </c>
       <c r="B949" t="s">
-        <v>943</v>
+        <v>277</v>
       </c>
       <c r="C949">
-        <v>202292902</v>
+        <v>202084756</v>
       </c>
       <c r="D949">
-        <v>135026902</v>
+        <v>135384756</v>
       </c>
       <c r="E949">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="F949">
-        <v>67266000</v>
+        <v>66700000</v>
       </c>
       <c r="G949">
-        <v>33.200000000000003</v>
+        <v>33</v>
       </c>
       <c r="H949">
-        <v>1998</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.25">
@@ -28063,25 +28063,25 @@
         <v>949</v>
       </c>
       <c r="B950" t="s">
-        <v>277</v>
+        <v>943</v>
       </c>
       <c r="C950">
-        <v>202084756</v>
+        <v>201967521</v>
       </c>
       <c r="D950">
-        <v>135384756</v>
+        <v>113376590</v>
       </c>
       <c r="E950">
-        <v>67</v>
+        <v>56.1</v>
       </c>
       <c r="F950">
-        <v>66700000</v>
+        <v>88590931</v>
       </c>
       <c r="G950">
-        <v>33</v>
+        <v>43.9</v>
       </c>
       <c r="H950">
-        <v>1990</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.25">
@@ -28092,22 +28092,22 @@
         <v>944</v>
       </c>
       <c r="C951">
-        <v>201967521</v>
+        <v>201957688</v>
       </c>
       <c r="D951">
-        <v>113376590</v>
+        <v>91457688</v>
       </c>
       <c r="E951">
-        <v>56.1</v>
+        <v>45.3</v>
       </c>
       <c r="F951">
-        <v>88590931</v>
+        <v>110500000</v>
       </c>
       <c r="G951">
-        <v>43.9</v>
+        <v>54.7</v>
       </c>
       <c r="H951">
-        <v>2024</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.25">
@@ -28118,22 +28118,22 @@
         <v>945</v>
       </c>
       <c r="C952">
-        <v>201957688</v>
+        <v>201634991</v>
       </c>
       <c r="D952">
-        <v>91457688</v>
+        <v>161197785</v>
       </c>
       <c r="E952">
-        <v>45.3</v>
+        <v>80</v>
       </c>
       <c r="F952">
-        <v>110500000</v>
+        <v>40437206</v>
       </c>
       <c r="G952">
-        <v>54.7</v>
+        <v>20</v>
       </c>
       <c r="H952">
-        <v>1990</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.25">
@@ -28144,22 +28144,22 @@
         <v>946</v>
       </c>
       <c r="C953">
-        <v>201634991</v>
+        <v>201585556</v>
       </c>
       <c r="D953">
-        <v>161197785</v>
+        <v>138447667</v>
       </c>
       <c r="E953">
-        <v>80</v>
+        <v>68.7</v>
       </c>
       <c r="F953">
-        <v>40437206</v>
+        <v>63137889</v>
       </c>
       <c r="G953">
-        <v>20</v>
+        <v>31.3</v>
       </c>
       <c r="H953">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.25">
@@ -28170,22 +28170,22 @@
         <v>947</v>
       </c>
       <c r="C954">
-        <v>201585556</v>
+        <v>201545517</v>
       </c>
       <c r="D954">
-        <v>138447667</v>
+        <v>83077833</v>
       </c>
       <c r="E954">
-        <v>68.7</v>
+        <v>41.2</v>
       </c>
       <c r="F954">
-        <v>63137889</v>
+        <v>118467684</v>
       </c>
       <c r="G954">
-        <v>31.3</v>
+        <v>58.8</v>
       </c>
       <c r="H954">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
@@ -28196,22 +28196,22 @@
         <v>948</v>
       </c>
       <c r="C955">
-        <v>201545517</v>
+        <v>200811689</v>
       </c>
       <c r="D955">
-        <v>83077833</v>
+        <v>85105259</v>
       </c>
       <c r="E955">
-        <v>41.2</v>
+        <v>42.4</v>
       </c>
       <c r="F955">
-        <v>118467684</v>
+        <v>115706430</v>
       </c>
       <c r="G955">
-        <v>58.8</v>
+        <v>57.6</v>
       </c>
       <c r="H955">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.25">
@@ -28222,22 +28222,22 @@
         <v>949</v>
       </c>
       <c r="C956">
-        <v>200811689</v>
+        <v>200687492</v>
       </c>
       <c r="D956">
-        <v>85105259</v>
+        <v>93385515</v>
       </c>
       <c r="E956">
-        <v>42.4</v>
+        <v>46.5</v>
       </c>
       <c r="F956">
-        <v>115706430</v>
+        <v>107301977</v>
       </c>
       <c r="G956">
-        <v>57.6</v>
+        <v>53.5</v>
       </c>
       <c r="H956">
-        <v>2006</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.25">
@@ -28248,22 +28248,22 @@
         <v>950</v>
       </c>
       <c r="C957">
-        <v>200687492</v>
+        <v>200512643</v>
       </c>
       <c r="D957">
-        <v>93385515</v>
+        <v>122012643</v>
       </c>
       <c r="E957">
-        <v>46.5</v>
+        <v>60.8</v>
       </c>
       <c r="F957">
-        <v>107301977</v>
+        <v>78500000</v>
       </c>
       <c r="G957">
-        <v>53.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="H957">
-        <v>2001</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.25">
@@ -28274,22 +28274,22 @@
         <v>951</v>
       </c>
       <c r="C958">
-        <v>200512643</v>
+        <v>199850315</v>
       </c>
       <c r="D958">
-        <v>122012643</v>
+        <v>68559554</v>
       </c>
       <c r="E958">
-        <v>60.8</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F958">
-        <v>78500000</v>
+        <v>131290761</v>
       </c>
       <c r="G958">
-        <v>39.200000000000003</v>
+        <v>65.7</v>
       </c>
       <c r="H958">
-        <v>1990</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.25">
@@ -28300,22 +28300,22 @@
         <v>952</v>
       </c>
       <c r="C959">
-        <v>199850315</v>
+        <v>199603202</v>
       </c>
       <c r="D959">
-        <v>68559554</v>
+        <v>105956290</v>
       </c>
       <c r="E959">
-        <v>34.299999999999997</v>
+        <v>53.1</v>
       </c>
       <c r="F959">
-        <v>131290761</v>
+        <v>93646912</v>
       </c>
       <c r="G959">
-        <v>65.7</v>
+        <v>46.9</v>
       </c>
       <c r="H959">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.25">
@@ -28326,22 +28326,22 @@
         <v>953</v>
       </c>
       <c r="C960">
-        <v>199603202</v>
+        <v>199043471</v>
       </c>
       <c r="D960">
-        <v>105956290</v>
+        <v>93354851</v>
       </c>
       <c r="E960">
+        <v>46.9</v>
+      </c>
+      <c r="F960">
+        <v>105688620</v>
+      </c>
+      <c r="G960">
         <v>53.1</v>
       </c>
-      <c r="F960">
-        <v>93646912</v>
-      </c>
-      <c r="G960">
-        <v>46.9</v>
-      </c>
       <c r="H960">
-        <v>2019</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.25">
@@ -28352,22 +28352,22 @@
         <v>954</v>
       </c>
       <c r="C961">
-        <v>199043471</v>
+        <v>199006387</v>
       </c>
       <c r="D961">
-        <v>93354851</v>
+        <v>90380162</v>
       </c>
       <c r="E961">
-        <v>46.9</v>
+        <v>45.4</v>
       </c>
       <c r="F961">
-        <v>105688620</v>
+        <v>108626225</v>
       </c>
       <c r="G961">
-        <v>53.1</v>
+        <v>54.6</v>
       </c>
       <c r="H961">
-        <v>2002</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.25">
@@ -28378,22 +28378,22 @@
         <v>955</v>
       </c>
       <c r="C962">
-        <v>199006387</v>
+        <v>198921659</v>
       </c>
       <c r="D962">
-        <v>90380162</v>
+        <v>0</v>
       </c>
       <c r="E962">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="F962">
-        <v>108626225</v>
+        <v>198921659</v>
       </c>
       <c r="G962">
-        <v>54.6</v>
+        <v>100</v>
       </c>
       <c r="H962">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.25">
@@ -28404,22 +28404,22 @@
         <v>956</v>
       </c>
       <c r="C963">
-        <v>198921659</v>
+        <v>198685114</v>
       </c>
       <c r="D963">
-        <v>0</v>
+        <v>78685114</v>
       </c>
       <c r="E963">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="F963">
-        <v>198921659</v>
+        <v>120000000</v>
       </c>
       <c r="G963">
-        <v>100</v>
+        <v>60.4</v>
       </c>
       <c r="H963">
-        <v>2020</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.25">
@@ -28430,22 +28430,22 @@
         <v>957</v>
       </c>
       <c r="C964">
-        <v>198685114</v>
+        <v>198636868</v>
       </c>
       <c r="D964">
-        <v>78685114</v>
+        <v>113086868</v>
       </c>
       <c r="E964">
-        <v>39.6</v>
+        <v>56.9</v>
       </c>
       <c r="F964">
-        <v>120000000</v>
+        <v>85550000</v>
       </c>
       <c r="G964">
-        <v>60.4</v>
+        <v>43.1</v>
       </c>
       <c r="H964">
-        <v>1998</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.25">
@@ -28456,22 +28456,22 @@
         <v>958</v>
       </c>
       <c r="C965">
-        <v>198636868</v>
+        <v>198520934</v>
       </c>
       <c r="D965">
-        <v>113086868</v>
+        <v>120908074</v>
       </c>
       <c r="E965">
-        <v>56.9</v>
+        <v>60.9</v>
       </c>
       <c r="F965">
-        <v>85550000</v>
+        <v>77612860</v>
       </c>
       <c r="G965">
-        <v>43.1</v>
+        <v>39.1</v>
       </c>
       <c r="H965">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.25">
@@ -28479,25 +28479,25 @@
         <v>965</v>
       </c>
       <c r="B966" t="s">
-        <v>959</v>
+        <v>685</v>
       </c>
       <c r="C966">
-        <v>198520934</v>
+        <v>198467607</v>
       </c>
       <c r="D966">
-        <v>120908074</v>
+        <v>58877969</v>
       </c>
       <c r="E966">
-        <v>60.9</v>
+        <v>29.7</v>
       </c>
       <c r="F966">
-        <v>77612860</v>
+        <v>139589638</v>
       </c>
       <c r="G966">
-        <v>39.1</v>
+        <v>70.3</v>
       </c>
       <c r="H966">
-        <v>2004</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.25">
@@ -28505,25 +28505,25 @@
         <v>966</v>
       </c>
       <c r="B967" t="s">
-        <v>685</v>
+        <v>959</v>
       </c>
       <c r="C967">
-        <v>198467607</v>
+        <v>198326350</v>
       </c>
       <c r="D967">
-        <v>58877969</v>
+        <v>670883</v>
       </c>
       <c r="E967">
-        <v>29.7</v>
+        <v>0.3</v>
       </c>
       <c r="F967">
-        <v>139589638</v>
+        <v>197655467</v>
       </c>
       <c r="G967">
-        <v>70.3</v>
+        <v>99.7</v>
       </c>
       <c r="H967">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.25">
@@ -28534,22 +28534,22 @@
         <v>960</v>
       </c>
       <c r="C968">
-        <v>198326350</v>
+        <v>198087212</v>
       </c>
       <c r="D968">
-        <v>670883</v>
+        <v>19019882</v>
       </c>
       <c r="E968">
-        <v>0.3</v>
+        <v>9.6</v>
       </c>
       <c r="F968">
-        <v>197655467</v>
+        <v>179067330</v>
       </c>
       <c r="G968">
-        <v>99.7</v>
+        <v>90.4</v>
       </c>
       <c r="H968">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.25">
@@ -28560,19 +28560,19 @@
         <v>961</v>
       </c>
       <c r="C969">
-        <v>198087212</v>
+        <v>197757387</v>
       </c>
       <c r="D969">
-        <v>19019882</v>
+        <v>57387</v>
       </c>
       <c r="E969">
-        <v>9.6</v>
+        <v>0.1</v>
       </c>
       <c r="F969">
-        <v>179067330</v>
+        <v>197700000</v>
       </c>
       <c r="G969">
-        <v>90.4</v>
+        <v>100</v>
       </c>
       <c r="H969">
         <v>2012</v>
@@ -28586,22 +28586,22 @@
         <v>962</v>
       </c>
       <c r="C970">
-        <v>197757387</v>
+        <v>197744825</v>
       </c>
       <c r="D970">
-        <v>57387</v>
+        <v>99215042</v>
       </c>
       <c r="E970">
-        <v>0.1</v>
+        <v>50.2</v>
       </c>
       <c r="F970">
-        <v>197700000</v>
+        <v>98529783</v>
       </c>
       <c r="G970">
-        <v>100</v>
+        <v>49.8</v>
       </c>
       <c r="H970">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.25">
@@ -28612,22 +28612,22 @@
         <v>963</v>
       </c>
       <c r="C971">
-        <v>197744825</v>
+        <v>197687603</v>
       </c>
       <c r="D971">
-        <v>99215042</v>
+        <v>65187603</v>
       </c>
       <c r="E971">
-        <v>50.2</v>
+        <v>33</v>
       </c>
       <c r="F971">
-        <v>98529783</v>
+        <v>132500000</v>
       </c>
       <c r="G971">
-        <v>49.8</v>
+        <v>67</v>
       </c>
       <c r="H971">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.25">
@@ -28638,22 +28638,22 @@
         <v>964</v>
       </c>
       <c r="C972">
-        <v>197687603</v>
+        <v>197183546</v>
       </c>
       <c r="D972">
-        <v>65187603</v>
+        <v>45020282</v>
       </c>
       <c r="E972">
-        <v>33</v>
+        <v>22.8</v>
       </c>
       <c r="F972">
-        <v>132500000</v>
+        <v>152163264</v>
       </c>
       <c r="G972">
-        <v>67</v>
+        <v>77.2</v>
       </c>
       <c r="H972">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.25">
@@ -28664,22 +28664,22 @@
         <v>965</v>
       </c>
       <c r="C973">
-        <v>197183546</v>
+        <v>197143218</v>
       </c>
       <c r="D973">
-        <v>45020282</v>
+        <v>0</v>
       </c>
       <c r="E973">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="F973">
-        <v>152163264</v>
+        <v>197143218</v>
       </c>
       <c r="G973">
-        <v>77.2</v>
+        <v>100</v>
       </c>
       <c r="H973">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.25">
@@ -28690,22 +28690,22 @@
         <v>966</v>
       </c>
       <c r="C974">
-        <v>197143218</v>
+        <v>197101678</v>
       </c>
       <c r="D974">
-        <v>0</v>
+        <v>111761982</v>
       </c>
       <c r="E974">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="F974">
-        <v>197143218</v>
+        <v>85339696</v>
       </c>
       <c r="G974">
-        <v>100</v>
+        <v>43.3</v>
       </c>
       <c r="H974">
-        <v>2021</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.25">
@@ -28716,22 +28716,22 @@
         <v>967</v>
       </c>
       <c r="C975">
-        <v>197101678</v>
+        <v>197079546</v>
       </c>
       <c r="D975">
-        <v>111761982</v>
+        <v>96397334</v>
       </c>
       <c r="E975">
-        <v>56.7</v>
+        <v>48.9</v>
       </c>
       <c r="F975">
-        <v>85339696</v>
+        <v>100682212</v>
       </c>
       <c r="G975">
-        <v>43.3</v>
+        <v>51.1</v>
       </c>
       <c r="H975">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.25">
@@ -28742,22 +28742,22 @@
         <v>968</v>
       </c>
       <c r="C976">
-        <v>197079546</v>
+        <v>196710396</v>
       </c>
       <c r="D976">
-        <v>96397334</v>
+        <v>83911193</v>
       </c>
       <c r="E976">
-        <v>48.9</v>
+        <v>42.7</v>
       </c>
       <c r="F976">
-        <v>100682212</v>
+        <v>112799203</v>
       </c>
       <c r="G976">
-        <v>51.1</v>
+        <v>57.3</v>
       </c>
       <c r="H976">
-        <v>2002</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
@@ -28768,22 +28768,22 @@
         <v>969</v>
       </c>
       <c r="C977">
-        <v>196710396</v>
+        <v>196567262</v>
       </c>
       <c r="D977">
-        <v>83911193</v>
+        <v>71567262</v>
       </c>
       <c r="E977">
-        <v>42.7</v>
+        <v>36.4</v>
       </c>
       <c r="F977">
-        <v>112799203</v>
+        <v>125000000</v>
       </c>
       <c r="G977">
-        <v>57.3</v>
+        <v>63.6</v>
       </c>
       <c r="H977">
-        <v>2014</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
@@ -28794,22 +28794,22 @@
         <v>970</v>
       </c>
       <c r="C978">
-        <v>196567262</v>
+        <v>196393745</v>
       </c>
       <c r="D978">
-        <v>71567262</v>
+        <v>82280579</v>
       </c>
       <c r="E978">
-        <v>36.4</v>
+        <v>41.9</v>
       </c>
       <c r="F978">
-        <v>125000000</v>
+        <v>114113166</v>
       </c>
       <c r="G978">
-        <v>63.6</v>
+        <v>58.1</v>
       </c>
       <c r="H978">
-        <v>1994</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
@@ -28820,22 +28820,22 @@
         <v>971</v>
       </c>
       <c r="C979">
-        <v>196393745</v>
+        <v>196114570</v>
       </c>
       <c r="D979">
-        <v>82280579</v>
+        <v>125014030</v>
       </c>
       <c r="E979">
-        <v>41.9</v>
+        <v>63.8</v>
       </c>
       <c r="F979">
-        <v>114113166</v>
+        <v>71100540</v>
       </c>
       <c r="G979">
-        <v>58.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H979">
-        <v>2007</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
@@ -28846,22 +28846,22 @@
         <v>972</v>
       </c>
       <c r="C980">
-        <v>196114570</v>
+        <v>195745823</v>
       </c>
       <c r="D980">
-        <v>125014030</v>
+        <v>135645823</v>
       </c>
       <c r="E980">
-        <v>63.8</v>
+        <v>69.3</v>
       </c>
       <c r="F980">
-        <v>71100540</v>
+        <v>60100000</v>
       </c>
       <c r="G980">
-        <v>36.200000000000003</v>
+        <v>30.7</v>
       </c>
       <c r="H980">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
@@ -28872,22 +28872,22 @@
         <v>973</v>
       </c>
       <c r="C981">
-        <v>195745823</v>
+        <v>195703351</v>
       </c>
       <c r="D981">
-        <v>135645823</v>
+        <v>110515313</v>
       </c>
       <c r="E981">
-        <v>69.3</v>
+        <v>56.5</v>
       </c>
       <c r="F981">
-        <v>60100000</v>
+        <v>85188038</v>
       </c>
       <c r="G981">
-        <v>30.7</v>
+        <v>43.5</v>
       </c>
       <c r="H981">
-        <v>2003</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
@@ -28898,22 +28898,22 @@
         <v>974</v>
       </c>
       <c r="C982">
-        <v>195703351</v>
+        <v>195320400</v>
       </c>
       <c r="D982">
-        <v>110515313</v>
+        <v>96368160</v>
       </c>
       <c r="E982">
-        <v>56.5</v>
+        <v>49.3</v>
       </c>
       <c r="F982">
-        <v>85188038</v>
+        <v>98952240</v>
       </c>
       <c r="G982">
-        <v>43.5</v>
+        <v>50.7</v>
       </c>
       <c r="H982">
-        <v>2008</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
@@ -28924,22 +28924,22 @@
         <v>975</v>
       </c>
       <c r="C983">
-        <v>195320400</v>
+        <v>195268056</v>
       </c>
       <c r="D983">
-        <v>96368160</v>
+        <v>100768056</v>
       </c>
       <c r="E983">
-        <v>49.3</v>
+        <v>51.6</v>
       </c>
       <c r="F983">
-        <v>98952240</v>
+        <v>94500000</v>
       </c>
       <c r="G983">
-        <v>50.7</v>
+        <v>48.4</v>
       </c>
       <c r="H983">
-        <v>2019</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
@@ -28950,22 +28950,22 @@
         <v>976</v>
       </c>
       <c r="C984">
-        <v>195268056</v>
+        <v>195243464</v>
       </c>
       <c r="D984">
-        <v>100768056</v>
+        <v>63859435</v>
       </c>
       <c r="E984">
-        <v>51.6</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F984">
-        <v>94500000</v>
+        <v>131384029</v>
       </c>
       <c r="G984">
-        <v>48.4</v>
+        <v>67.3</v>
       </c>
       <c r="H984">
-        <v>1993</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
@@ -28976,22 +28976,22 @@
         <v>977</v>
       </c>
       <c r="C985">
-        <v>195243464</v>
+        <v>195243411</v>
       </c>
       <c r="D985">
-        <v>63859435</v>
+        <v>55483770</v>
       </c>
       <c r="E985">
-        <v>32.700000000000003</v>
+        <v>28.4</v>
       </c>
       <c r="F985">
-        <v>131384029</v>
+        <v>139759641</v>
       </c>
       <c r="G985">
-        <v>67.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H985">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
@@ -29002,22 +29002,22 @@
         <v>978</v>
       </c>
       <c r="C986">
-        <v>195243411</v>
+        <v>194764672</v>
       </c>
       <c r="D986">
-        <v>55483770</v>
+        <v>75764672</v>
       </c>
       <c r="E986">
-        <v>28.4</v>
+        <v>38.9</v>
       </c>
       <c r="F986">
-        <v>139759641</v>
+        <v>119000000</v>
       </c>
       <c r="G986">
-        <v>71.599999999999994</v>
+        <v>61.1</v>
       </c>
       <c r="H986">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
@@ -29028,22 +29028,22 @@
         <v>979</v>
       </c>
       <c r="C987">
-        <v>194764672</v>
+        <v>194694725</v>
       </c>
       <c r="D987">
-        <v>75764672</v>
+        <v>96853865</v>
       </c>
       <c r="E987">
-        <v>38.9</v>
+        <v>49.8</v>
       </c>
       <c r="F987">
-        <v>119000000</v>
+        <v>97840860</v>
       </c>
       <c r="G987">
-        <v>61.1</v>
+        <v>50.2</v>
       </c>
       <c r="H987">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
@@ -29054,22 +29054,22 @@
         <v>980</v>
       </c>
       <c r="C988">
-        <v>194694725</v>
+        <v>193967670</v>
       </c>
       <c r="D988">
-        <v>96853865</v>
+        <v>99967670</v>
       </c>
       <c r="E988">
-        <v>49.8</v>
+        <v>51.5</v>
       </c>
       <c r="F988">
-        <v>97840860</v>
+        <v>94000000</v>
       </c>
       <c r="G988">
-        <v>50.2</v>
+        <v>48.5</v>
       </c>
       <c r="H988">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
@@ -29080,22 +29080,22 @@
         <v>981</v>
       </c>
       <c r="C989">
-        <v>193967670</v>
+        <v>193921372</v>
       </c>
       <c r="D989">
-        <v>99967670</v>
+        <v>118907036</v>
       </c>
       <c r="E989">
-        <v>51.5</v>
+        <v>61.3</v>
       </c>
       <c r="F989">
-        <v>94000000</v>
+        <v>75014336</v>
       </c>
       <c r="G989">
-        <v>48.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H989">
-        <v>2011</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
@@ -29106,19 +29106,19 @@
         <v>982</v>
       </c>
       <c r="C990">
-        <v>193921372</v>
+        <v>193772504</v>
       </c>
       <c r="D990">
-        <v>118907036</v>
+        <v>77812000</v>
       </c>
       <c r="E990">
-        <v>61.3</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F990">
-        <v>75014336</v>
+        <v>115960504</v>
       </c>
       <c r="G990">
-        <v>38.700000000000003</v>
+        <v>59.8</v>
       </c>
       <c r="H990">
         <v>2002</v>
@@ -29132,22 +29132,22 @@
         <v>983</v>
       </c>
       <c r="C991">
-        <v>193772504</v>
+        <v>193764664</v>
       </c>
       <c r="D991">
-        <v>77812000</v>
+        <v>81903458</v>
       </c>
       <c r="E991">
-        <v>40.200000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="F991">
-        <v>115960504</v>
+        <v>111861206</v>
       </c>
       <c r="G991">
-        <v>59.8</v>
+        <v>57.7</v>
       </c>
       <c r="H991">
-        <v>2002</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
@@ -29158,22 +29158,22 @@
         <v>984</v>
       </c>
       <c r="C992">
-        <v>193764664</v>
+        <v>193678298</v>
       </c>
       <c r="D992">
-        <v>81903458</v>
+        <v>709982</v>
       </c>
       <c r="E992">
-        <v>42.3</v>
+        <v>0.4</v>
       </c>
       <c r="F992">
-        <v>111861206</v>
+        <v>192968316</v>
       </c>
       <c r="G992">
-        <v>57.7</v>
+        <v>99.6</v>
       </c>
       <c r="H992">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
@@ -29184,22 +29184,22 @@
         <v>985</v>
       </c>
       <c r="C993">
-        <v>193678298</v>
+        <v>193355933</v>
       </c>
       <c r="D993">
-        <v>709982</v>
+        <v>107918810</v>
       </c>
       <c r="E993">
-        <v>0.4</v>
+        <v>55.8</v>
       </c>
       <c r="F993">
-        <v>192968316</v>
+        <v>85437123</v>
       </c>
       <c r="G993">
-        <v>99.6</v>
+        <v>44.2</v>
       </c>
       <c r="H993">
-        <v>2016</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
@@ -29210,22 +29210,22 @@
         <v>986</v>
       </c>
       <c r="C994">
-        <v>193355933</v>
+        <v>192907684</v>
       </c>
       <c r="D994">
-        <v>107918810</v>
+        <v>105344029</v>
       </c>
       <c r="E994">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="F994">
-        <v>85437123</v>
+        <v>87563655</v>
       </c>
       <c r="G994">
-        <v>44.2</v>
+        <v>45.4</v>
       </c>
       <c r="H994">
-        <v>2009</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
@@ -29236,22 +29236,22 @@
         <v>987</v>
       </c>
       <c r="C995">
-        <v>192907684</v>
+        <v>192781882</v>
       </c>
       <c r="D995">
-        <v>105344029</v>
+        <v>56110897</v>
       </c>
       <c r="E995">
-        <v>54.6</v>
+        <v>29.1</v>
       </c>
       <c r="F995">
-        <v>87563655</v>
+        <v>136670985</v>
       </c>
       <c r="G995">
-        <v>45.4</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H995">
-        <v>2022</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
@@ -29262,22 +29262,22 @@
         <v>988</v>
       </c>
       <c r="C996">
-        <v>192781882</v>
+        <v>192352980</v>
       </c>
       <c r="D996">
-        <v>56110897</v>
+        <v>8056636</v>
       </c>
       <c r="E996">
-        <v>29.1</v>
+        <v>4.2</v>
       </c>
       <c r="F996">
-        <v>136670985</v>
+        <v>184296344</v>
       </c>
       <c r="G996">
-        <v>70.900000000000006</v>
+        <v>95.8</v>
       </c>
       <c r="H996">
-        <v>2005</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
@@ -29288,22 +29288,22 @@
         <v>989</v>
       </c>
       <c r="C997">
-        <v>192352980</v>
+        <v>192330738</v>
       </c>
       <c r="D997">
-        <v>8056636</v>
+        <v>101530738</v>
       </c>
       <c r="E997">
-        <v>4.2</v>
+        <v>52.8</v>
       </c>
       <c r="F997">
-        <v>184296344</v>
+        <v>90800000</v>
       </c>
       <c r="G997">
-        <v>95.8</v>
+        <v>47.2</v>
       </c>
       <c r="H997">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
@@ -29314,22 +29314,22 @@
         <v>990</v>
       </c>
       <c r="C998">
-        <v>192330738</v>
+        <v>191602146</v>
       </c>
       <c r="D998">
-        <v>101530738</v>
+        <v>0</v>
       </c>
       <c r="E998">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="F998">
-        <v>90800000</v>
+        <v>191602146</v>
       </c>
       <c r="G998">
-        <v>47.2</v>
+        <v>100</v>
       </c>
       <c r="H998">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
@@ -29337,25 +29337,25 @@
         <v>998</v>
       </c>
       <c r="B999" t="s">
-        <v>991</v>
+        <v>933</v>
       </c>
       <c r="C999">
-        <v>191602146</v>
+        <v>191502426</v>
       </c>
       <c r="D999">
-        <v>0</v>
+        <v>113502426</v>
       </c>
       <c r="E999">
-        <v>0</v>
+        <v>59.3</v>
       </c>
       <c r="F999">
-        <v>191602146</v>
+        <v>78000000</v>
       </c>
       <c r="G999">
-        <v>100</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H999">
-        <v>2019</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
@@ -29363,25 +29363,25 @@
         <v>999</v>
       </c>
       <c r="B1000" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="C1000">
-        <v>191502426</v>
+        <v>191466556</v>
       </c>
       <c r="D1000">
-        <v>113502426</v>
+        <v>158119460</v>
       </c>
       <c r="E1000">
-        <v>59.3</v>
+        <v>82.6</v>
       </c>
       <c r="F1000">
-        <v>78000000</v>
+        <v>33347096</v>
       </c>
       <c r="G1000">
-        <v>40.700000000000003</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H1000">
-        <v>1991</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
@@ -29392,22 +29392,22 @@
         <v>992</v>
       </c>
       <c r="C1001">
-        <v>191466556</v>
+        <v>191067560</v>
       </c>
       <c r="D1001">
-        <v>158119460</v>
+        <v>92373751</v>
       </c>
       <c r="E1001">
-        <v>82.6</v>
+        <v>48.4</v>
       </c>
       <c r="F1001">
-        <v>33347096</v>
+        <v>98693809</v>
       </c>
       <c r="G1001">
-        <v>17.399999999999999</v>
+        <v>51.6</v>
       </c>
       <c r="H1001">
-        <v>2005</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
